--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
@@ -412,7 +412,7 @@
 15:抢单确认 
 25:支付失败 
 26:支付成功 
-100:全部完成
+100:确认完成
 0:系统取消 </t>
   </si>
 </sst>
@@ -3571,6 +3571,9 @@
     <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3580,12 +3583,57 @@
     <xf numFmtId="168" fontId="101" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3604,56 +3652,8 @@
     <xf numFmtId="0" fontId="101" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4924,179 +4924,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="46" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="61"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="56"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="56" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="67" t="s">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
     </row>
     <row r="4" spans="1:53" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="19"/>
@@ -5105,568 +5105,568 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="53" t="s">
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="69"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="53"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="20"/>
       <c r="AZ5" s="20"/>
       <c r="BA5" s="21"/>
     </row>
     <row r="6" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="54" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="64" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="68" t="s">
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="65"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="50"/>
       <c r="AX6" s="25"/>
       <c r="AY6" s="25"/>
       <c r="AZ6" s="25"/>
       <c r="BA6" s="26"/>
     </row>
     <row r="7" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="65"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="25"/>
       <c r="AZ7" s="25"/>
       <c r="BA7" s="26"/>
     </row>
     <row r="8" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="65"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="50"/>
       <c r="AX8" s="25"/>
       <c r="AY8" s="25"/>
       <c r="AZ8" s="25"/>
       <c r="BA8" s="26"/>
     </row>
     <row r="9" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="65"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="50"/>
       <c r="AX9" s="25"/>
       <c r="AY9" s="25"/>
       <c r="AZ9" s="25"/>
       <c r="BA9" s="26"/>
     </row>
     <row r="10" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="65"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="50"/>
       <c r="AX10" s="25"/>
       <c r="AY10" s="25"/>
       <c r="AZ10" s="25"/>
       <c r="BA10" s="26"/>
     </row>
     <row r="11" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="65"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="50"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="25"/>
       <c r="AZ11" s="25"/>
       <c r="BA11" s="26"/>
     </row>
     <row r="12" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="65"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="50"/>
       <c r="AX12" s="25"/>
       <c r="AY12" s="25"/>
       <c r="AZ12" s="25"/>
       <c r="BA12" s="26"/>
     </row>
     <row r="13" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="65"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="50"/>
       <c r="AX13" s="25"/>
       <c r="AY13" s="25"/>
       <c r="AZ13" s="25"/>
       <c r="BA13" s="26"/>
     </row>
     <row r="14" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="65"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="50"/>
       <c r="AX14" s="25"/>
       <c r="AY14" s="25"/>
       <c r="AZ14" s="25"/>
@@ -5690,39 +5690,21 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5739,21 +5721,39 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -5782,8 +5782,8 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6237,7 +6237,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A16" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6709,8 +6709,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>

--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>○</t>
   </si>
@@ -302,15 +302,6 @@
   </si>
   <si>
     <t>单位:分</t>
-  </si>
-  <si>
-    <t>需求主信息</t>
-  </si>
-  <si>
-    <t>需求品类明细信息</t>
-  </si>
-  <si>
-    <t>需求竞标信息</t>
   </si>
   <si>
     <t>REQ_BID</t>
@@ -414,6 +405,21 @@
 26:支付成功 
 100:确认完成
 0:系统取消 </t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>REQ_CONTACT</t>
+  </si>
+  <si>
+    <t>需求竞标信息表</t>
+  </si>
+  <si>
+    <t>需求发布主信息表</t>
+  </si>
+  <si>
+    <t>需求发布明细信息表</t>
   </si>
 </sst>
 </file>
@@ -3571,89 +3577,89 @@
     <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="2" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="14" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="15" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="16" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="2" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="14" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="15" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="16" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4924,179 +4930,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="55" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="56"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="61"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="57" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="46" t="s">
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="46" t="s">
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
     </row>
     <row r="4" spans="1:53" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="19"/>
@@ -5105,568 +5111,568 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="63" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="63" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="52" t="s">
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="69"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="20"/>
       <c r="AZ5" s="20"/>
       <c r="BA5" s="21"/>
     </row>
     <row r="6" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66">
+      <c r="A6" s="50">
         <v>1</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="69" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="49" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="51" t="s">
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="50"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="65"/>
       <c r="AX6" s="25"/>
       <c r="AY6" s="25"/>
       <c r="AZ6" s="25"/>
       <c r="BA6" s="26"/>
     </row>
     <row r="7" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="65"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="25"/>
       <c r="AZ7" s="25"/>
       <c r="BA7" s="26"/>
     </row>
     <row r="8" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="50"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="65"/>
       <c r="AX8" s="25"/>
       <c r="AY8" s="25"/>
       <c r="AZ8" s="25"/>
       <c r="BA8" s="26"/>
     </row>
     <row r="9" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="50"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="65"/>
       <c r="AX9" s="25"/>
       <c r="AY9" s="25"/>
       <c r="AZ9" s="25"/>
       <c r="BA9" s="26"/>
     </row>
     <row r="10" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="50"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="65"/>
       <c r="AX10" s="25"/>
       <c r="AY10" s="25"/>
       <c r="AZ10" s="25"/>
       <c r="BA10" s="26"/>
     </row>
     <row r="11" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="50"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="65"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="25"/>
       <c r="AZ11" s="25"/>
       <c r="BA11" s="26"/>
     </row>
     <row r="12" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="50"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="65"/>
       <c r="AX12" s="25"/>
       <c r="AY12" s="25"/>
       <c r="AZ12" s="25"/>
       <c r="BA12" s="26"/>
     </row>
     <row r="13" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="50"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="65"/>
       <c r="AX13" s="25"/>
       <c r="AY13" s="25"/>
       <c r="AZ13" s="25"/>
       <c r="BA13" s="26"/>
     </row>
     <row r="14" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="49"/>
-      <c r="AS14" s="49"/>
-      <c r="AT14" s="49"/>
-      <c r="AU14" s="49"/>
-      <c r="AV14" s="49"/>
-      <c r="AW14" s="50"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="65"/>
       <c r="AX14" s="25"/>
       <c r="AY14" s="25"/>
       <c r="AZ14" s="25"/>
@@ -5690,21 +5696,39 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5721,39 +5745,21 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -5780,10 +5786,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -5806,7 +5812,7 @@
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="73" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -5919,14 +5925,14 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A13" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A14" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -6031,10 +6037,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -6051,31 +6057,31 @@
       <c r="L10" s="9"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="37" t="s">
-        <v>62</v>
-      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36">
@@ -6083,17 +6089,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
@@ -6101,50 +6105,63 @@
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="41"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="M12" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>32</v>
+      </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="G13" s="39"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="37"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="G14" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="37"/>
+      <c r="M14" s="37" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
@@ -6162,34 +6179,49 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6208,10 +6240,10 @@
   </mergeCells>
   <phoneticPr fontId="51" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G9 G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G14 G9">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D11:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L8">
@@ -6237,7 +6269,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6260,7 +6292,7 @@
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="73" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -6380,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -6410,7 +6442,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>38</v>
@@ -6438,7 +6470,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
@@ -6464,7 +6496,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>37</v>
@@ -6490,7 +6522,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -6516,7 +6548,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -6540,7 +6572,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -6563,10 +6595,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -6589,10 +6621,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
@@ -6615,10 +6647,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -6632,7 +6664,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="33"/>
       <c r="M15" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
@@ -6709,8 +6741,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6733,7 +6765,7 @@
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="73" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
@@ -6754,7 +6786,7 @@
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
@@ -6853,7 +6885,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -6880,10 +6912,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -6910,10 +6942,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
@@ -6936,10 +6968,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -6962,10 +6994,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -6991,7 +7023,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>

--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,18 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
-    <sheet name="REQ_MAIN" sheetId="46" r:id="rId2"/>
-    <sheet name="REQ_SUB" sheetId="52" r:id="rId3"/>
-    <sheet name="REQ_BID" sheetId="51" r:id="rId4"/>
+    <sheet name="ORDER" sheetId="46" r:id="rId2"/>
+    <sheet name="ORDER_ITEM" sheetId="52" r:id="rId3"/>
+    <sheet name="ORDER_BID" sheetId="51" r:id="rId4"/>
+    <sheet name="UH_ORDER" sheetId="53" r:id="rId5"/>
+    <sheet name="UH_ORDER_ITEM" sheetId="54" r:id="rId6"/>
+    <sheet name="UH_ORDER_BID" sheetId="55" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">REQ_BID!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">REQ_MAIN!$A$1:$M$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">REQ_SUB!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ORDER!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_BID!$A$1:$M$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">UH_ORDER!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">UH_ORDER_BID!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">UH_ORDER_ITEM!$A$1:$M$13</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -112,8 +118,86 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
   <si>
     <t>○</t>
   </si>
@@ -241,9 +325,6 @@
     <t>需求描述</t>
   </si>
   <si>
-    <t>配送地址</t>
-  </si>
-  <si>
     <t>规格</t>
   </si>
   <si>
@@ -253,9 +334,6 @@
     <t>期望单价(MAX)</t>
   </si>
   <si>
-    <t>联系电话</t>
-  </si>
-  <si>
     <t>期望发货时间</t>
   </si>
   <si>
@@ -271,57 +349,18 @@
     <t>需求总价估算</t>
   </si>
   <si>
-    <t>最终报价编号</t>
-  </si>
-  <si>
-    <t>REQ_MAIN</t>
-  </si>
-  <si>
-    <t>REQ_DESC</t>
-  </si>
-  <si>
-    <t>REQ_DELIVERY_DATE</t>
-  </si>
-  <si>
-    <t>REQ_DELIVERY_ADDRESS</t>
-  </si>
-  <si>
-    <t>REQ_CONTACT_MOBILE</t>
-  </si>
-  <si>
-    <t>REQ_STATUS</t>
-  </si>
-  <si>
-    <t>REQ_TOTAL_ESTIMATION</t>
-  </si>
-  <si>
-    <t>REQ_SUB</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
     <t>单位:分</t>
   </si>
   <si>
-    <t>REQ_BID</t>
-  </si>
-  <si>
-    <t>竞标编号</t>
-  </si>
-  <si>
     <t>竞标描述</t>
   </si>
   <si>
     <t>竞标报价</t>
   </si>
   <si>
-    <t>竞标人/机构</t>
-  </si>
-  <si>
-    <t>LOGISTICS_DESC</t>
-  </si>
-  <si>
     <t>物流单号</t>
   </si>
   <si>
@@ -335,45 +374,6 @@
   </si>
   <si>
     <t>BID_PRICE</t>
-  </si>
-  <si>
-    <t>BID_OWNER</t>
-  </si>
-  <si>
-    <t>BID_OWNER_MOBILE</t>
-  </si>
-  <si>
-    <t>REQ_SUB_SEQ</t>
-  </si>
-  <si>
-    <t>PRODUCT_DESC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPECS</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>ESTIMATION</t>
-  </si>
-  <si>
-    <t>REQ_SUB_STATUS</t>
-  </si>
-  <si>
-    <t>REQ_CODE</t>
-  </si>
-  <si>
-    <t>REQ_FINAL_BID_CODE</t>
-  </si>
-  <si>
-    <t>PRODUCT_CODE</t>
-  </si>
-  <si>
-    <t>LOGISTICS_CODE</t>
-  </si>
-  <si>
-    <t>BID_CODE</t>
   </si>
   <si>
     <r>
@@ -407,12 +407,6 @@
 0:系统取消 </t>
   </si>
   <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>REQ_CONTACT</t>
-  </si>
-  <si>
     <t>需求竞标信息表</t>
   </si>
   <si>
@@ -420,6 +414,159 @@
   </si>
   <si>
     <t>需求发布明细信息表</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>ORDER_CODE</t>
+  </si>
+  <si>
+    <t>ORDER_DESC</t>
+  </si>
+  <si>
+    <t>ORDER_DELIVERY_DATE</t>
+  </si>
+  <si>
+    <t>ORDER_DELIVERY_ADDRESS</t>
+  </si>
+  <si>
+    <t>ORDER_TOTAL_ESTIMATION</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>ORDER_COMMENT</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_SEQ</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_CODE</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_DESC</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_SPECS</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_QUANTITY</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_ESTIMATION</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_LOGISTICS_CODE</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_LOGISTICS_DESC</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_COMMENT</t>
+  </si>
+  <si>
+    <t>ORDER_BID</t>
+  </si>
+  <si>
+    <t>BID_COMMENT</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>最多候选竞标件数</t>
+  </si>
+  <si>
+    <t>最终成交价格</t>
+  </si>
+  <si>
+    <t>ORDER_FINAL_BID_PRICE</t>
+  </si>
+  <si>
+    <t>ORDER_BID_RECORD_LIMIT</t>
+  </si>
+  <si>
+    <t>需求有效期(开始)</t>
+  </si>
+  <si>
+    <t>需求有效期(结束)</t>
+  </si>
+  <si>
+    <t>ORDER_EFFECTIVE_BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>ORDER_EFFECTIVE_END_DATE</t>
+  </si>
+  <si>
+    <t>BID_UID</t>
+  </si>
+  <si>
+    <t>竞标者识别ID</t>
+  </si>
+  <si>
+    <t>最终选定竞标者ID</t>
+  </si>
+  <si>
+    <t>ORDER_FINAL_BID_UID</t>
+  </si>
+  <si>
+    <t>BID_CONTACT_PHONE</t>
+  </si>
+  <si>
+    <t>ORDER_CONTACT_PHONE</t>
+  </si>
+  <si>
+    <t>ORDER_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>BID_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>竞标联系人姓名</t>
+  </si>
+  <si>
+    <t>竞标联系人电话</t>
+  </si>
+  <si>
+    <t>收货联系人电话</t>
+  </si>
+  <si>
+    <t>收货联系人姓名</t>
+  </si>
+  <si>
+    <t>UH_ORDER_BID</t>
+  </si>
+  <si>
+    <t>UH_ORDER_ITEM</t>
+  </si>
+  <si>
+    <t>UH_ORDER</t>
+  </si>
+  <si>
+    <t>更新时间戳</t>
+  </si>
+  <si>
+    <t>MODIFY_TIME</t>
+  </si>
+  <si>
+    <t>更新操作类别</t>
+  </si>
+  <si>
+    <t>MODIFY_TYPE</t>
+  </si>
+  <si>
+    <t>1:R 2:U 4:C 8:D</t>
   </si>
 </sst>
 </file>
@@ -435,7 +582,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1079,6 +1226,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -3450,7 +3603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3577,6 +3730,12 @@
     <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3586,12 +3745,57 @@
     <xf numFmtId="168" fontId="101" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3610,57 +3814,9 @@
     <xf numFmtId="0" fontId="101" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3693,6 +3849,27 @@
     </xf>
     <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="816">
@@ -4930,179 +5107,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="46" t="s">
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="61"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="57"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="56" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="67" t="s">
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
     </row>
     <row r="4" spans="1:53" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="19"/>
@@ -5111,7 +5288,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="69" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="53"/>
@@ -5122,27 +5299,27 @@
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47" t="s">
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="53" t="s">
         <v>24</v>
       </c>
@@ -5169,510 +5346,510 @@
       <c r="AT5" s="53"/>
       <c r="AU5" s="53"/>
       <c r="AV5" s="53"/>
-      <c r="AW5" s="69"/>
+      <c r="AW5" s="54"/>
       <c r="AX5" s="20"/>
       <c r="AY5" s="20"/>
       <c r="AZ5" s="20"/>
       <c r="BA5" s="21"/>
     </row>
     <row r="6" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="54" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="64" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="68" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="65"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="51"/>
       <c r="AX6" s="25"/>
       <c r="AY6" s="25"/>
       <c r="AZ6" s="25"/>
       <c r="BA6" s="26"/>
     </row>
     <row r="7" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="65"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="51"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="25"/>
       <c r="AZ7" s="25"/>
       <c r="BA7" s="26"/>
     </row>
     <row r="8" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="65"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="51"/>
       <c r="AX8" s="25"/>
       <c r="AY8" s="25"/>
       <c r="AZ8" s="25"/>
       <c r="BA8" s="26"/>
     </row>
     <row r="9" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="65"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="51"/>
       <c r="AX9" s="25"/>
       <c r="AY9" s="25"/>
       <c r="AZ9" s="25"/>
       <c r="BA9" s="26"/>
     </row>
     <row r="10" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="65"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="50"/>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="51"/>
       <c r="AX10" s="25"/>
       <c r="AY10" s="25"/>
       <c r="AZ10" s="25"/>
       <c r="BA10" s="26"/>
     </row>
     <row r="11" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="65"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="51"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="25"/>
       <c r="AZ11" s="25"/>
       <c r="BA11" s="26"/>
     </row>
     <row r="12" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="65"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="51"/>
       <c r="AX12" s="25"/>
       <c r="AY12" s="25"/>
       <c r="AZ12" s="25"/>
       <c r="BA12" s="26"/>
     </row>
     <row r="13" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="65"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="51"/>
       <c r="AX13" s="25"/>
       <c r="AY13" s="25"/>
       <c r="AZ13" s="25"/>
       <c r="BA13" s="26"/>
     </row>
     <row r="14" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="65"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="51"/>
       <c r="AX14" s="25"/>
       <c r="AY14" s="25"/>
       <c r="AZ14" s="25"/>
@@ -5696,39 +5873,21 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5745,21 +5904,39 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -5786,10 +5963,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -5807,65 +5984,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -5925,14 +6102,14 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A14" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A19" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -5962,7 +6139,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -5985,13 +6162,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
@@ -6009,10 +6186,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>37</v>
@@ -6037,10 +6214,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -6063,10 +6240,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -6089,10 +6266,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>38</v>
@@ -6106,68 +6283,75 @@
       <c r="K12" s="40"/>
       <c r="L12" s="41"/>
       <c r="M12" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="M13" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="39"/>
-      <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="G14" s="39"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="41"/>
-      <c r="M14" s="37" t="s">
-        <v>88</v>
-      </c>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" s="37"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -6179,10 +6363,19 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="37"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -6194,34 +6387,125 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="5"/>
+      <c r="A17" s="36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="37">
+        <v>256</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6240,10 +6524,10 @@
   </mergeCells>
   <phoneticPr fontId="51" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G14 G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G9 G13">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L8">
@@ -6266,10 +6550,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6287,65 +6571,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6405,14 +6689,14 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A16" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -6439,10 +6723,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>38</v>
@@ -6467,10 +6751,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
@@ -6493,10 +6777,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>37</v>
@@ -6519,10 +6803,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -6545,10 +6829,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
@@ -6569,10 +6853,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -6586,7 +6870,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
       <c r="M12" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
@@ -6595,10 +6879,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>37</v>
@@ -6621,10 +6905,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>37</v>
@@ -6647,10 +6931,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -6664,15 +6948,26 @@
       <c r="K15" s="32"/>
       <c r="L15" s="33"/>
       <c r="M15" s="37" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="37">
+        <v>256</v>
+      </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
@@ -6696,6 +6991,21 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6716,7 +7026,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 F10:G12">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L12 L6:L8">
@@ -6739,10 +7049,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6760,65 +7070,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6878,14 +7188,14 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>37</v>
@@ -6912,10 +7222,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -6942,10 +7252,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
@@ -6968,10 +7278,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -6985,7 +7295,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
       <c r="M9" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6993,11 +7303,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
@@ -7020,10 +7330,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -7041,11 +7351,22 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>256</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -7101,8 +7422,8 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="29"/>
@@ -7175,35 +7496,20 @@
       <c r="L20" s="33"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="5"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7221,13 +7527,641 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D22 D6:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G11 G12">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="60.59765625" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82">
+        <f t="shared" ref="A6:A21" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="82">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>256</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>256</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5">
+        <v>32</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="37">
+        <v>256</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L10">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D24">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G10 G11 G15">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7239,4 +8173,1093 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82">
+        <f t="shared" ref="A6:A7" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="82">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <f t="shared" ref="A8:A18" si="1">ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>256</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>128</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5">
+        <v>256</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="37">
+        <v>256</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L14 L6:L10">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D20">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F12:G14 F6:G10">
+      <formula1>"○"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82">
+        <f t="shared" ref="A6:A7" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="82">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <f t="shared" ref="A8:A14" si="1">ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
+        <v>128</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D23">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 G14 F6:G13">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L13">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,24 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
   </bookViews>
   <sheets>
-    <sheet name="#REV" sheetId="8" r:id="rId1"/>
+    <sheet name="#R" sheetId="8" r:id="rId1"/>
     <sheet name="ORDER" sheetId="46" r:id="rId2"/>
     <sheet name="ORDER_ITEM" sheetId="52" r:id="rId3"/>
     <sheet name="ORDER_BID" sheetId="51" r:id="rId4"/>
-    <sheet name="UH_ORDER" sheetId="53" r:id="rId5"/>
-    <sheet name="UH_ORDER_ITEM" sheetId="54" r:id="rId6"/>
-    <sheet name="UH_ORDER_BID" sheetId="55" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ORDER!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_BID!$A$1:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">UH_ORDER!$A$1:$M$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">UH_ORDER_BID!$A$1:$M$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">UH_ORDER_ITEM!$A$1:$M$13</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -118,99 +112,12 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">N : NOT NULL 
-ND : NOT NULL WITH DEFAULT
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">N : NOT NULL 
-ND : NOT NULL WITH DEFAULT
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="8"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">N : NOT NULL 
-ND : NOT NULL WITH DEFAULT
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>○</t>
   </si>
   <si>
-    <t>TABLE SPACE</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (IDX)</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (LOB)</t>
-  </si>
-  <si>
     <t>项目ID</t>
   </si>
   <si>
@@ -281,9 +188,6 @@
   </si>
   <si>
     <t>数据库规格设计</t>
-  </si>
-  <si>
-    <t>」</t>
   </si>
   <si>
     <t>序号</t>
@@ -545,28 +449,13 @@
     <t>收货联系人姓名</t>
   </si>
   <si>
-    <t>UH_ORDER_BID</t>
-  </si>
-  <si>
-    <t>UH_ORDER_ITEM</t>
-  </si>
-  <si>
-    <t>UH_ORDER</t>
-  </si>
-  <si>
-    <t>更新时间戳</t>
-  </si>
-  <si>
-    <t>MODIFY_TIME</t>
-  </si>
-  <si>
-    <t>更新操作类别</t>
-  </si>
-  <si>
-    <t>MODIFY_TYPE</t>
-  </si>
-  <si>
-    <t>1:R 2:U 4:C 8:D</t>
+    <t>表空间</t>
+  </si>
+  <si>
+    <t>表空间(LOB)</t>
+  </si>
+  <si>
+    <t>更新历史开启</t>
   </si>
 </sst>
 </file>
@@ -582,7 +471,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1188,17 +1077,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
@@ -1206,12 +1084,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Microsoft YaHei Light"/>
@@ -1231,12 +1103,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF002060"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,8 +1259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1483,127 +1361,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="816">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3603,7 +3360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3640,191 +3397,59 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="102" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="100" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="102" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="100" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="103" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="2" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="7" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="12" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="7" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="8" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="10" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="11" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="12" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="9" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="14" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="15" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="16" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="27" borderId="13" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="99" fillId="0" borderId="6" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="2" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3835,41 +3460,86 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="816">
@@ -5095,781 +4765,778 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="23"/>
+    <col min="1" max="16384" width="3.3984375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="56" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56" t="s">
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="56" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56" t="s">
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+    </row>
+    <row r="2" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+    </row>
+    <row r="3" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+    </row>
+    <row r="4" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="52"/>
+    </row>
+    <row r="5" spans="1:53" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="57"/>
-    </row>
-    <row r="2" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="58" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="44"/>
+    </row>
+    <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="49">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-    </row>
-    <row r="3" spans="1:53" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-    </row>
-    <row r="4" spans="1:53" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="19"/>
-      <c r="AL4" s="18" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="64" t="s">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="21"/>
-    </row>
-    <row r="6" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="67">
-        <v>1</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="26"/>
-    </row>
-    <row r="7" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="26"/>
-    </row>
-    <row r="8" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="26"/>
-    </row>
-    <row r="9" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="26"/>
-    </row>
-    <row r="10" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="26"/>
-    </row>
-    <row r="11" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="26"/>
-    </row>
-    <row r="12" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="26"/>
-    </row>
-    <row r="13" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="26"/>
-    </row>
-    <row r="14" spans="1:53" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="26"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="58"/>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="47"/>
+    </row>
+    <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="47"/>
+    </row>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="58"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="58"/>
+      <c r="AU8" s="58"/>
+      <c r="AV8" s="58"/>
+      <c r="AW8" s="58"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="47"/>
+    </row>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="58"/>
+      <c r="AU9" s="58"/>
+      <c r="AV9" s="58"/>
+      <c r="AW9" s="58"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="47"/>
+    </row>
+    <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="58"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="47"/>
+    </row>
+    <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="47"/>
+    </row>
+    <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="47"/>
+    </row>
+    <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="47"/>
+    </row>
+    <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="47"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -5984,65 +5651,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
+      <c r="A2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6061,43 +5730,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6106,13 +5775,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>32</v>
@@ -6136,13 +5805,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>256</v>
@@ -6162,13 +5831,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
@@ -6186,13 +5855,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5">
         <v>256</v>
@@ -6214,13 +5883,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
         <v>16</v>
@@ -6240,13 +5909,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
         <v>16</v>
@@ -6260,237 +5929,237 @@
       <c r="L11" s="9"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="102" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
+      <c r="B14" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
+      <c r="B15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
+      <c r="B16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>37</v>
+      <c r="B17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="5">
         <v>32</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36">
+      <c r="B18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="25">
         <v>256</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
@@ -6524,7 +6193,7 @@
   </mergeCells>
   <phoneticPr fontId="51" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G9 G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G9 G13 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
@@ -6553,7 +6222,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6571,65 +6240,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
+      <c r="A2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6647,44 +6318,44 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6693,13 +6364,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>32</v>
@@ -6723,13 +6394,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
@@ -6751,13 +6422,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
         <v>32</v>
@@ -6771,31 +6442,31 @@
       <c r="L8" s="9"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5">
         <v>256</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="29"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -6803,13 +6474,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
         <v>64</v>
@@ -6829,13 +6500,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -6853,13 +6524,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
@@ -6869,113 +6540,113 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M12" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5">
         <v>128</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5">
         <v>256</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" ht="68" x14ac:dyDescent="0.15">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" ht="68" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>82</v>
+      <c r="B15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="25">
         <v>256</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="37"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -7023,7 +6694,7 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 F10:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 F10:G12 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
@@ -7052,7 +6723,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7070,65 +6741,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
+      <c r="A2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -7146,44 +6819,44 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7192,13 +6865,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>32</v>
@@ -7222,13 +6895,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>32</v>
@@ -7252,13 +6925,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
         <v>256</v>
@@ -7278,13 +6951,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
@@ -7294,8 +6967,8 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="37" t="s">
-        <v>51</v>
+      <c r="M9" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7304,13 +6977,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
         <v>128</v>
@@ -7330,13 +7003,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
         <v>16</v>
@@ -7355,14 +7028,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>9</v>
+      <c r="B12" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
         <v>256</v>
@@ -7406,95 +7079,95 @@
       <c r="L14" s="9"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="29"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
@@ -7530,7 +7203,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G11 G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G11 G12 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21">
@@ -7545,1721 +7218,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="60.59765625" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82">
-        <f t="shared" ref="A6:A21" si="0">ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5">
-        <v>256</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5">
-        <v>256</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5">
-        <v>32</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="37">
-        <v>256</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L10">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D24">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G10 G11 G15">
-      <formula1>"○"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82">
-        <f t="shared" ref="A6:A7" si="0">ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <f t="shared" ref="A8:A18" si="1">ROW()-5</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5">
-        <v>256</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5">
-        <v>128</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5">
-        <v>256</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="37">
-        <v>256</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L14 L6:L10">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D20">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F12:G14 F6:G10">
-      <formula1>"○"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.19921875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82">
-        <f t="shared" ref="A6:A7" si="0">ROW()-5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="83"/>
-    </row>
-    <row r="7" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <f t="shared" ref="A8:A14" si="1">ROW()-5</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
-        <v>256</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5">
-        <v>128</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D23">
-      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 G14 F6:G13">
-      <formula1>"○"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L13">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#R" sheetId="8" r:id="rId1"/>
     <sheet name="ORDER" sheetId="46" r:id="rId2"/>
     <sheet name="ORDER_ITEM" sheetId="52" r:id="rId3"/>
-    <sheet name="ORDER_BID" sheetId="51" r:id="rId4"/>
+    <sheet name="ORDER_ITEM_PROP" sheetId="53" r:id="rId4"/>
+    <sheet name="ORDER_BID" sheetId="51" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ORDER!$A$1:$M$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_BID!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ORDER_BID!$A$1:$M$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_ITEM_PROP!$A$1:$M$11</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -112,8 +114,34 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="117">
   <si>
     <t>○</t>
   </si>
@@ -229,24 +257,12 @@
     <t>需求描述</t>
   </si>
   <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>期望单价(MAX)</t>
-  </si>
-  <si>
     <t>期望发货时间</t>
   </si>
   <si>
     <t>需求状态</t>
   </si>
   <si>
-    <t>品类描述</t>
-  </si>
-  <si>
     <t>品类编号</t>
   </si>
   <si>
@@ -274,33 +290,7 @@
     <t>物流签收状态</t>
   </si>
   <si>
-    <t>BID_DESC</t>
-  </si>
-  <si>
     <t>BID_PRICE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>35:发货</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-45:收货 
-44:退货/退款
-43:换货</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">10:需求发布
@@ -350,9 +340,6 @@
     <t>ORDER_ITEM</t>
   </si>
   <si>
-    <t>ORDER_ITEM_SEQ</t>
-  </si>
-  <si>
     <t>ORDER_ITEM_CODE</t>
   </si>
   <si>
@@ -456,6 +443,63 @@
   </si>
   <si>
     <t>更新历史开启</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_KEY</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_VALUE</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_OPTION</t>
+  </si>
+  <si>
+    <t>1:必须 0:可选</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_GROUP</t>
+  </si>
+  <si>
+    <t>品类项目期望单价(MAX)</t>
+  </si>
+  <si>
+    <t>品类项目编号</t>
+  </si>
+  <si>
+    <t>品类项目描述</t>
+  </si>
+  <si>
+    <t>品类项目数量</t>
+  </si>
+  <si>
+    <t>品类项目规格</t>
+  </si>
+  <si>
+    <t>JSON格式</t>
+  </si>
+  <si>
+    <t>35:发货
+45:收货 
+44:退货/退款
+43:换货</t>
+  </si>
+  <si>
+    <t>品类项目属性KEY</t>
+  </si>
+  <si>
+    <t>品类项目属性VALUE</t>
+  </si>
+  <si>
+    <t>品类项目属性可选标识</t>
+  </si>
+  <si>
+    <t>品类项目属性分组</t>
+  </si>
+  <si>
+    <t>BID_ORDER_ITEM_DESC</t>
   </si>
 </sst>
 </file>
@@ -471,7 +515,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1092,12 +1136,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -3360,7 +3398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3451,6 +3489,66 @@
     <xf numFmtId="49" fontId="100" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3460,86 +3558,29 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="29" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="29" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="763" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="816">
@@ -4765,7 +4806,7 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
@@ -4773,770 +4814,770 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="48"/>
+    <col min="1" max="16384" width="3.3984375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-    </row>
-    <row r="2" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+    </row>
+    <row r="2" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56" t="s">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56" t="s">
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-    </row>
-    <row r="3" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-    </row>
-    <row r="4" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="52"/>
-    </row>
-    <row r="5" spans="1:53" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+    </row>
+    <row r="3" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+    </row>
+    <row r="4" spans="1:53" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="39"/>
+    </row>
+    <row r="5" spans="1:53" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="33"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="58" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="58"/>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="58"/>
-      <c r="AW6" s="58"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="47"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="36"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="58"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="58"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="47"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="36"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="58"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="58"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="58"/>
-      <c r="AW8" s="58"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="47"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43"/>
+      <c r="AT8" s="43"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="43"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="36"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="58"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="47"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="36"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="46"/>
-      <c r="AY10" s="46"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="47"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="36"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="47"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="36"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="47"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="36"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="47"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="36"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="47"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="36"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -5651,67 +5692,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -5778,7 +5819,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
@@ -5808,7 +5849,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
@@ -5831,13 +5872,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
@@ -5855,10 +5896,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>33</v>
@@ -5883,10 +5924,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>33</v>
@@ -5909,10 +5950,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>33</v>
@@ -5935,10 +5976,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>34</v>
@@ -5952,7 +5993,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="29"/>
       <c r="M12" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="102" x14ac:dyDescent="0.15">
@@ -5961,10 +6002,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>34</v>
@@ -5980,7 +6021,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="29"/>
       <c r="M13" s="25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
@@ -5989,13 +6030,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="27"/>
@@ -6013,13 +6054,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="27"/>
@@ -6037,10 +6078,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>34</v>
@@ -6061,10 +6102,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>33</v>
@@ -6087,10 +6128,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>34</v>
@@ -6114,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>33</v>
@@ -6219,10 +6260,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6240,67 +6281,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6360,14 +6401,14 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A16" si="0">ROW()-5</f>
+        <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
@@ -6394,21 +6435,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -6416,57 +6455,59 @@
       <c r="L7" s="9"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5">
-        <v>256</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -6474,17 +6515,15 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5">
-        <v>64</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -6494,16 +6533,16 @@
       <c r="L10" s="9"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
@@ -6516,33 +6555,35 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M11" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="25" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E12" s="5">
+        <v>128</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -6550,16 +6591,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -6570,23 +6611,21 @@
       <c r="L13" s="21"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="22" customFormat="1" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
+      <c r="B14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5">
-        <v>256</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -6594,23 +6633,27 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" ht="68" x14ac:dyDescent="0.15">
+      <c r="M14" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="25">
+        <v>256</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
@@ -6618,35 +6661,22 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="25">
-        <v>256</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -6662,21 +6692,6 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6694,14 +6709,14 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 F10:G12 I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F9:G11 I3 F6:G7">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L11 L6:L7">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D17">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L12 L6:L8">
-      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLinesSet="0"/>
@@ -6720,10 +6735,456 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5">
+        <v>256</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5">
+        <v>256</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L12 L6:L7">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F10:G12 I3 F6:G7">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6741,67 +7202,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
@@ -6868,7 +7329,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
@@ -6895,10 +7356,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
@@ -6925,10 +7386,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>33</v>
@@ -6943,7 +7404,9 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="25" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -6951,10 +7414,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -6968,7 +7431,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
       <c r="M9" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6977,10 +7440,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>33</v>
@@ -7003,10 +7466,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>33</v>
@@ -7032,7 +7495,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>

--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#R" sheetId="8" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="ORDER_ITEM" sheetId="52" r:id="rId3"/>
     <sheet name="ORDER_ITEM_PROP" sheetId="53" r:id="rId4"/>
     <sheet name="ORDER_BID" sheetId="51" r:id="rId5"/>
+    <sheet name="#Sample" sheetId="54" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ORDER!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ORDER_BID!$A$1:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_ITEM_PROP!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_ITEM_PROP!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
   <si>
     <t>○</t>
   </si>
@@ -304,12 +305,6 @@
     <t>需求竞标信息表</t>
   </si>
   <si>
-    <t>需求发布主信息表</t>
-  </si>
-  <si>
-    <t>需求发布明细信息表</t>
-  </si>
-  <si>
     <t>收货地址</t>
   </si>
   <si>
@@ -379,9 +374,6 @@
     <t>最多候选竞标件数</t>
   </si>
   <si>
-    <t>最终成交价格</t>
-  </si>
-  <si>
     <t>ORDER_FINAL_BID_PRICE</t>
   </si>
   <si>
@@ -458,9 +450,6 @@
   </si>
   <si>
     <t>1:必须 0:可选</t>
-  </si>
-  <si>
-    <t>ORDER_ITEM_PROP_GROUP</t>
   </si>
   <si>
     <t>品类项目期望单价(MAX)</t>
@@ -496,10 +485,85 @@
     <t>品类项目属性可选标识</t>
   </si>
   <si>
-    <t>品类项目属性分组</t>
-  </si>
-  <si>
-    <t>BID_ORDER_ITEM_DESC</t>
+    <t>BID_DESC</t>
+  </si>
+  <si>
+    <t>ORDER_FINAL_BID_DESC</t>
+  </si>
+  <si>
+    <t>最终选定方案描述</t>
+  </si>
+  <si>
+    <t>最终选定方案价格</t>
+  </si>
+  <si>
+    <t>需求信息主表</t>
+  </si>
+  <si>
+    <t>需求信息品类明细表</t>
+  </si>
+  <si>
+    <t>需求信息品类属性描述表</t>
+  </si>
+  <si>
+    <t>品类项目属性INDEX</t>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_INDEX</t>
+  </si>
+  <si>
+    <t>ORD001</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>拖拉机</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>年限</t>
+  </si>
+  <si>
+    <t>1～3年</t>
+  </si>
+  <si>
+    <t>马力</t>
+  </si>
+  <si>
+    <t>改装</t>
+  </si>
+  <si>
+    <t>氙气大灯</t>
   </si>
 </sst>
 </file>
@@ -515,7 +579,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="112" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1145,8 +1209,71 @@
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,6 +1430,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -3398,7 +3531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3519,33 +3652,33 @@
     <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3580,6 +3713,120 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="102" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="102" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="103" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="106" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="106" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4818,746 +5065,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
     </row>
     <row r="2" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="47" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42" t="s">
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
     </row>
     <row r="3" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
     </row>
     <row r="4" spans="1:53" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:53" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45" t="s">
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
       <c r="AX5" s="32"/>
       <c r="AY5" s="32"/>
       <c r="AZ5" s="32"/>
       <c r="BA5" s="33"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40">
+      <c r="A6" s="44">
         <v>1</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="43" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="44" t="s">
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="43"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="43"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="35"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="36"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
       <c r="AX8" s="35"/>
       <c r="AY8" s="35"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="36"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="35"/>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="36"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="43"/>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
       <c r="AX10" s="35"/>
       <c r="AY10" s="35"/>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="36"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="43"/>
-      <c r="AS11" s="43"/>
-      <c r="AT11" s="43"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="43"/>
-      <c r="AW11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
       <c r="AZ11" s="35"/>
       <c r="BA11" s="36"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
       <c r="AX12" s="35"/>
       <c r="AY12" s="35"/>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="36"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="35"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="36"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
       <c r="AX14" s="35"/>
       <c r="AY14" s="35"/>
       <c r="AZ14" s="35"/>
@@ -5581,21 +5828,39 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5612,39 +5877,21 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -5671,10 +5918,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -5697,13 +5944,13 @@
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="50" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="60"/>
       <c r="I1" s="49"/>
@@ -5718,13 +5965,13 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="49"/>
@@ -5743,7 +5990,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
       <c r="G3" s="57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="58" t="s">
@@ -5810,35 +6057,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <f t="shared" ref="A6:A19" si="0">ROW()-5</f>
+    <row r="6" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="68">
+        <f t="shared" ref="A6:A20" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="69">
         <v>32</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="5"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -5849,7 +6096,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
@@ -5866,109 +6113,109 @@
       <c r="L7" s="9"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="E8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="17">
         <v>256</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="17">
         <v>16</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="17">
         <v>16</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="5"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
@@ -5979,7 +6226,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>34</v>
@@ -6005,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>34</v>
@@ -6030,13 +6277,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="27"/>
@@ -6054,13 +6301,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="27"/>
@@ -6078,10 +6325,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>34</v>
@@ -6102,10 +6349,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>33</v>
@@ -6128,15 +6375,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="25"/>
+        <v>112</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5">
+        <v>256</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
@@ -6152,17 +6401,15 @@
         <v>14</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="25">
-        <v>256</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E19" s="25"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
@@ -6173,11 +6420,22 @@
       <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="25">
+        <v>256</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
@@ -6189,33 +6447,48 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="5"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6237,7 +6510,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 G9 G13 I3">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D23">
       <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L8">
@@ -6263,7 +6536,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6286,13 +6559,13 @@
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="50" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="60"/>
       <c r="I1" s="49"/>
@@ -6307,13 +6580,13 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="49"/>
@@ -6332,7 +6605,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
       <c r="G3" s="57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="58" t="s">
@@ -6399,163 +6672,167 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="68">
         <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="69">
         <v>32</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="69"/>
+    </row>
+    <row r="7" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="69">
         <v>32</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="F7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="69"/>
+    </row>
+    <row r="8" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="62">
         <v>256</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="82">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="83">
         <v>64</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="83"/>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="25" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6568,7 +6845,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>
@@ -6594,7 +6871,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
@@ -6620,7 +6897,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>34</v>
@@ -6634,7 +6911,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
       <c r="M14" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
@@ -6646,7 +6923,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>33</v>
@@ -6737,8 +7014,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6761,13 +7038,13 @@
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="50" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="60"/>
       <c r="I1" s="49"/>
@@ -6782,13 +7059,13 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="49"/>
@@ -6807,7 +7084,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
       <c r="G3" s="57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="58" t="s">
@@ -6874,104 +7151,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="75">
         <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="76">
         <v>32</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="76"/>
+    </row>
+    <row r="7" spans="1:13" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="76">
         <v>32</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="F7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5">
-        <v>256</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="E8" s="17">
+        <v>32</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="76"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5">
-        <v>256</v>
+      <c r="E9" s="17">
+        <v>64</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -6982,57 +7267,55 @@
       <c r="L9" s="21"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5">
-        <v>64</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
@@ -7155,10 +7438,10 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10:L12 L6:L7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7 L9:L10 L12">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F10:G12 I3 F6:G7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 I3 F9:G10 F12:G12">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D18">
@@ -7183,8 +7466,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7213,7 +7496,7 @@
       <c r="E1" s="51"/>
       <c r="F1" s="52"/>
       <c r="G1" s="60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="60"/>
       <c r="I1" s="49"/>
@@ -7228,13 +7511,13 @@
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="52"/>
       <c r="G2" s="60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="49"/>
@@ -7253,7 +7536,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
       <c r="G3" s="57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="58" t="s">
@@ -7329,7 +7612,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
@@ -7356,10 +7639,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
@@ -7389,7 +7672,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>33</v>
@@ -7405,7 +7688,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
       <c r="M8" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7440,10 +7723,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>33</v>
@@ -7466,10 +7749,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>33</v>
@@ -7495,7 +7778,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>
@@ -7681,4 +7964,378 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B1:P22"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" style="89" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11" style="89"/>
+    <col min="7" max="7" width="8.19921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.59765625" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="89"/>
+    <col min="11" max="11" width="16.19921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="89" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" style="89" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="89" customWidth="1"/>
+    <col min="16" max="16" width="23.19921875" style="89" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" s="95" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="F3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="K3" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="98">
+        <v>1</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="98"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="F4" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="K4" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="98">
+        <v>2</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="98"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="K5" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="98">
+        <v>1</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="98"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="K6" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="98">
+        <v>2</v>
+      </c>
+      <c r="O6" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="98"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="K7" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="98">
+        <v>3</v>
+      </c>
+      <c r="O7" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="98"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K8" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="93">
+        <v>1</v>
+      </c>
+      <c r="O8" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="93"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K9" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="93">
+        <v>1</v>
+      </c>
+      <c r="O9" s="93">
+        <v>100</v>
+      </c>
+      <c r="P9" s="93"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K10" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="93">
+        <v>2</v>
+      </c>
+      <c r="O10" s="93">
+        <v>150</v>
+      </c>
+      <c r="P10" s="93"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K11" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="93"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.15">
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_ume_projects/gongxiaotong-service-tool/input/design-table/cn.com.gxt.entity/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="3"/>
+    <workbookView xWindow="2320" yWindow="-10" windowWidth="18930" windowHeight="10730" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="#R" sheetId="8" r:id="rId1"/>
@@ -17,15 +12,23 @@
     <sheet name="ORDER_ITEM" sheetId="52" r:id="rId3"/>
     <sheet name="ORDER_ITEM_PROP" sheetId="53" r:id="rId4"/>
     <sheet name="ORDER_BID" sheetId="51" r:id="rId5"/>
-    <sheet name="#Sample" sheetId="54" r:id="rId6"/>
+    <sheet name="MASTER_ITEM" sheetId="55" r:id="rId6"/>
+    <sheet name="MASTER_ITEM PROP" sheetId="56" r:id="rId7"/>
+    <sheet name="MASTER_ITEM PROP_VALUE" sheetId="57" r:id="rId8"/>
+    <sheet name="#Sample" sheetId="54" r:id="rId9"/>
+    <sheet name="#Sample2" sheetId="58" r:id="rId10"/>
+    <sheet name="#Sample3" sheetId="59" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">MASTER_ITEM!$A$1:$M$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'MASTER_ITEM PROP'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'MASTER_ITEM PROP_VALUE'!$A$1:$M$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ORDER!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ORDER_BID!$A$1:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ORDER_ITEM!$A$1:$M$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ORDER_ITEM_PROP!$A$1:$M$10</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -141,8 +144,86 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">N : NOT NULL 
+ND : NOT NULL WITH DEFAULT
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="260">
   <si>
     <t>○</t>
   </si>
@@ -565,21 +646,572 @@
   <si>
     <t>氙气大灯</t>
   </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类名称</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_CATEGORY_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>父品类编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_CATEGORY</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类信息表</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_LENGHT</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>值长度</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:lablel
+1:radiobutton
+2:pulldown
+3:between
+4:input
+5:textarea</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_TYPE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示类型</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面控件I编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_ATTRIBUTE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类属性表</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_BY_SEQ</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序索引</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:有效
+1：无效</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_VALUE_STATUS</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值状态</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_VALUE_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值名称</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIBUTE_VALUE_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_ATTRIBUTE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它农机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥料加工设备</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>林业机械</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>土壤耕整机械</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>排灌机械</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥机械</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农机配件</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>包衣机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷灌机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保机具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>收获工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>除草工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>犁耕工具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它农膜产品</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农膜</t>
+    </r>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压聚乙烯棚膜</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压聚乙烯地膜</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶面肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>微量元素肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>钾肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>磷肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它农药</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药原药</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物成长调节剂</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物农药</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀螨剂</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀虫剂</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀菌剂</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>除草剂</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济作物种子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食种子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果种子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜种子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>花卉种子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>林木种苗</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农机</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农具</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农膜</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>化肥</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子种苗</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>农资产品</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>多肉</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>防辐射</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>美观</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>提神醒脑</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化空气</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>3L</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5L</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>1L</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>花儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朵朵</t>
+    </r>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯有</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>格</t>
+    </r>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>花仙子</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序索引</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值状态</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值名称</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值编号</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTER_ITEM PROP_VALUE</t>
+  </si>
+  <si>
+    <t>MASTER_ITEM PROP</t>
+  </si>
+  <si>
+    <t>MASTER_ITEM</t>
+  </si>
+  <si>
+    <t>品类属性值表</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="112" x14ac:knownFonts="1">
+  <fonts count="116">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -644,12 +1276,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -797,24 +1431,28 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -841,6 +1479,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -953,12 +1592,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1106,12 +1747,14 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1138,6 +1781,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1176,44 +1820,44 @@
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1221,14 +1865,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1236,41 +1880,71 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="31">
@@ -2113,14 +2787,14 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="64" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2249,14 +2923,14 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3288,8 +3962,8 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
@@ -3461,8 +4135,8 @@
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3495,28 +4169,28 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -3531,7 +4205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3652,7 +4326,184 @@
     <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="760" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="98" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="102" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="102" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="103" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="106" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="106" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="3" xfId="815" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="97" fillId="24" borderId="3" xfId="815" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="97" fillId="0" borderId="3" xfId="815" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="24" borderId="3" xfId="815" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="24" borderId="3" xfId="815" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="3" xfId="815" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="815" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="24" borderId="3" xfId="815" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="99" fillId="0" borderId="3" xfId="815" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="815" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="24" borderId="3" xfId="815" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="815" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="815" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="100" fillId="0" borderId="3" xfId="815" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="30" borderId="3" xfId="815" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3667,7 +4518,7 @@
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,120 +4564,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="102" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="102" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="103" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="103" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="105" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="105" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="3" xfId="329" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="24" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="106" fillId="0" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="106" fillId="24" borderId="3" xfId="329" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="761" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="329" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3887,6 +4624,7 @@
     <cellStyle name="_別冊1.プロジェクト計画書サンプル 6" xfId="54"/>
     <cellStyle name="_別冊1.プロジェクト計画書サンプル 7" xfId="55"/>
     <cellStyle name="_別冊1.プロジェクト計画書サンプル 8" xfId="56"/>
+    <cellStyle name="W_TSTAFFM_SYO_DB" xfId="454"/>
     <cellStyle name="0.0" xfId="57"/>
     <cellStyle name="0.0 2" xfId="58"/>
     <cellStyle name="0.0 3" xfId="59"/>
@@ -4151,7 +4889,6 @@
     <cellStyle name="Nor}al 6" xfId="318"/>
     <cellStyle name="Nor}al 7" xfId="319"/>
     <cellStyle name="Nor}al 8" xfId="320"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="321"/>
     <cellStyle name="Normal - Style1 2" xfId="322"/>
     <cellStyle name="Normal - Style1 3" xfId="323"/>
@@ -4286,7 +5023,6 @@
     <cellStyle name="title 6" xfId="451"/>
     <cellStyle name="title 7" xfId="452"/>
     <cellStyle name="title 8" xfId="453"/>
-    <cellStyle name="W_TSTAFFM_SYO_DB" xfId="454"/>
     <cellStyle name="スタイル 1" xfId="455"/>
     <cellStyle name="スタイル 1 2" xfId="456"/>
     <cellStyle name="スタイル 1 3" xfId="457"/>
@@ -4335,197 +5071,20 @@
     <cellStyle name="ハイパーリンク 2 6" xfId="500"/>
     <cellStyle name="ハイパーリンク 2 7" xfId="501"/>
     <cellStyle name="ハイパーリンク 2 8" xfId="502"/>
-    <cellStyle name="下点線" xfId="503"/>
-    <cellStyle name="下点線 2" xfId="504"/>
-    <cellStyle name="下点線 3" xfId="505"/>
-    <cellStyle name="下点線 4" xfId="506"/>
-    <cellStyle name="下点線 5" xfId="507"/>
-    <cellStyle name="下点線 6" xfId="508"/>
-    <cellStyle name="下点線 7" xfId="509"/>
-    <cellStyle name="下点線 8" xfId="510"/>
-    <cellStyle name="型番" xfId="511"/>
-    <cellStyle name="型番 2" xfId="512"/>
-    <cellStyle name="型番 3" xfId="513"/>
-    <cellStyle name="型番 4" xfId="514"/>
-    <cellStyle name="型番 5" xfId="515"/>
-    <cellStyle name="型番 6" xfId="516"/>
-    <cellStyle name="型番 7" xfId="517"/>
-    <cellStyle name="型番 8" xfId="518"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="519"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 2" xfId="520"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 3" xfId="521"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 4" xfId="522"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 5" xfId="523"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 6" xfId="524"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 7" xfId="525"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 8" xfId="526"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="527"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 2" xfId="528"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 3" xfId="529"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 4" xfId="530"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 5" xfId="531"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 6" xfId="532"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 7" xfId="533"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 8" xfId="534"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="535"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 2" xfId="536"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 3" xfId="537"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 4" xfId="538"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 5" xfId="539"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 6" xfId="540"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 7" xfId="541"/>
-    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 8" xfId="542"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="543"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 2" xfId="544"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 3" xfId="545"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 4" xfId="546"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 5" xfId="547"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 6" xfId="548"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 7" xfId="549"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 8" xfId="550"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="551"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 2" xfId="552"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 3" xfId="553"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 4" xfId="554"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 5" xfId="555"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 6" xfId="556"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 7" xfId="557"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 8" xfId="558"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="559"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 2" xfId="560"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 3" xfId="561"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 4" xfId="562"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 5" xfId="563"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 6" xfId="564"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 7" xfId="565"/>
-    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 8" xfId="566"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="567"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 2" xfId="568"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 3" xfId="569"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 4" xfId="570"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 5" xfId="571"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 6" xfId="572"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 7" xfId="573"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 8" xfId="574"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="575"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 2" xfId="576"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 3" xfId="577"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 4" xfId="578"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 5" xfId="579"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 6" xfId="580"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 7" xfId="581"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 8" xfId="582"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="583"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 2" xfId="584"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 3" xfId="585"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 4" xfId="586"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 5" xfId="587"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 6" xfId="588"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 7" xfId="589"/>
-    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 8" xfId="590"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="591"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 2" xfId="592"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 3" xfId="593"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 4" xfId="594"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 5" xfId="595"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 6" xfId="596"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 7" xfId="597"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 8" xfId="598"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="599"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 2" xfId="600"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 3" xfId="601"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 4" xfId="602"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 5" xfId="603"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 6" xfId="604"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 7" xfId="605"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 8" xfId="606"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="607"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 2" xfId="608"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 3" xfId="609"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 4" xfId="610"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 5" xfId="611"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 6" xfId="612"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 7" xfId="613"/>
-    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 8" xfId="614"/>
-    <cellStyle name="强调文字颜色 1" xfId="615"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="616"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="617"/>
-    <cellStyle name="强调文字颜色 1 4" xfId="618"/>
-    <cellStyle name="强调文字颜色 1 5" xfId="619"/>
-    <cellStyle name="强调文字颜色 1 6" xfId="620"/>
-    <cellStyle name="强调文字颜色 1 7" xfId="621"/>
-    <cellStyle name="强调文字颜色 1 8" xfId="622"/>
-    <cellStyle name="强调文字颜色 2" xfId="623"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="624"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="625"/>
-    <cellStyle name="强调文字颜色 2 4" xfId="626"/>
-    <cellStyle name="强调文字颜色 2 5" xfId="627"/>
-    <cellStyle name="强调文字颜色 2 6" xfId="628"/>
-    <cellStyle name="强调文字颜色 2 7" xfId="629"/>
-    <cellStyle name="强调文字颜色 2 8" xfId="630"/>
-    <cellStyle name="强调文字颜色 3" xfId="631"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="632"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="633"/>
-    <cellStyle name="强调文字颜色 3 4" xfId="634"/>
-    <cellStyle name="强调文字颜色 3 5" xfId="635"/>
-    <cellStyle name="强调文字颜色 3 6" xfId="636"/>
-    <cellStyle name="强调文字颜色 3 7" xfId="637"/>
-    <cellStyle name="强调文字颜色 3 8" xfId="638"/>
-    <cellStyle name="强调文字颜色 4" xfId="639"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="640"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="641"/>
-    <cellStyle name="强调文字颜色 4 4" xfId="642"/>
-    <cellStyle name="强调文字颜色 4 5" xfId="643"/>
-    <cellStyle name="强调文字颜色 4 6" xfId="644"/>
-    <cellStyle name="强调文字颜色 4 7" xfId="645"/>
-    <cellStyle name="强调文字颜色 4 8" xfId="646"/>
-    <cellStyle name="强调文字颜色 5" xfId="647"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="648"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="649"/>
-    <cellStyle name="强调文字颜色 5 4" xfId="650"/>
-    <cellStyle name="强调文字颜色 5 5" xfId="651"/>
-    <cellStyle name="强调文字颜色 5 6" xfId="652"/>
-    <cellStyle name="强调文字颜色 5 7" xfId="653"/>
-    <cellStyle name="强调文字颜色 5 8" xfId="654"/>
-    <cellStyle name="强调文字颜色 6" xfId="655"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="656"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="657"/>
-    <cellStyle name="强调文字颜色 6 4" xfId="658"/>
-    <cellStyle name="强调文字颜色 6 5" xfId="659"/>
-    <cellStyle name="强调文字颜色 6 6" xfId="660"/>
-    <cellStyle name="强调文字颜色 6 7" xfId="661"/>
-    <cellStyle name="强调文字颜色 6 8" xfId="662"/>
-    <cellStyle name="明朝(602R)" xfId="663"/>
-    <cellStyle name="明朝(602R) 2" xfId="664"/>
-    <cellStyle name="明朝(602R) 3" xfId="665"/>
-    <cellStyle name="明朝(602R) 4" xfId="666"/>
-    <cellStyle name="明朝(602R) 5" xfId="667"/>
-    <cellStyle name="明朝(602R) 6" xfId="668"/>
-    <cellStyle name="明朝(602R) 7" xfId="669"/>
-    <cellStyle name="明朝(602R) 8" xfId="670"/>
-    <cellStyle name="明朝強調(602R)" xfId="671"/>
-    <cellStyle name="明朝強調(602R) 2" xfId="672"/>
-    <cellStyle name="明朝強調(602R) 3" xfId="673"/>
-    <cellStyle name="明朝強調(602R) 4" xfId="674"/>
-    <cellStyle name="明朝強調(602R) 5" xfId="675"/>
-    <cellStyle name="明朝強調(602R) 6" xfId="676"/>
-    <cellStyle name="明朝強調(602R) 7" xfId="677"/>
-    <cellStyle name="明朝強調(602R) 8" xfId="678"/>
-    <cellStyle name="未定義" xfId="679"/>
-    <cellStyle name="未定義 2" xfId="680"/>
-    <cellStyle name="未定義 3" xfId="681"/>
-    <cellStyle name="未定義 4" xfId="682"/>
-    <cellStyle name="未定義 5" xfId="683"/>
-    <cellStyle name="未定義 6" xfId="684"/>
-    <cellStyle name="未定義 7" xfId="685"/>
-    <cellStyle name="未定義 8" xfId="686"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="807"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 2" xfId="808"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 3" xfId="809"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 4" xfId="810"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 5" xfId="811"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 6" xfId="812"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 7" xfId="813"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 8" xfId="814"/>
     <cellStyle name="标题" xfId="687"/>
     <cellStyle name="标题 5" xfId="688"/>
     <cellStyle name="标题 6" xfId="689"/>
     <cellStyle name="标题 7" xfId="690"/>
     <cellStyle name="标题 8" xfId="691"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_laroux" xfId="692"/>
-    <cellStyle name="桁蟻唇Ｆ_laroux" xfId="693"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="694"/>
     <cellStyle name="標準 2 2" xfId="695"/>
     <cellStyle name="標準 2 2 2" xfId="696"/>
@@ -4594,9 +5153,9 @@
     <cellStyle name="標準 7 8" xfId="759"/>
     <cellStyle name="標準_20070702_補足フォーム" xfId="760"/>
     <cellStyle name="標準_TEMRIDX_1_C21DB" xfId="761"/>
-    <cellStyle name="標準_休診登録変更申請書" xfId="762"/>
     <cellStyle name="標準_変更管理台帳" xfId="763"/>
     <cellStyle name="標準_画面概要・表示条件" xfId="764"/>
+    <cellStyle name="標準_休診登録変更申請書" xfId="762"/>
     <cellStyle name="標準TY" xfId="765"/>
     <cellStyle name="標準TY 2" xfId="766"/>
     <cellStyle name="標準TY 3" xfId="767"/>
@@ -4605,6 +5164,112 @@
     <cellStyle name="標準TY 6" xfId="770"/>
     <cellStyle name="標準TY 7" xfId="771"/>
     <cellStyle name="標準TY 8" xfId="772"/>
+    <cellStyle name="表旨巧・・ハイパーリンク" xfId="791"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 2" xfId="792"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 3" xfId="793"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 4" xfId="794"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 5" xfId="795"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 6" xfId="796"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 7" xfId="797"/>
+    <cellStyle name="表旨巧・・ハイパーリンク 8" xfId="798"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="567"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 2" xfId="568"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 3" xfId="569"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 4" xfId="570"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 5" xfId="571"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 6" xfId="572"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 7" xfId="573"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 8" xfId="574"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="575"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 2" xfId="576"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 3" xfId="577"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 4" xfId="578"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 5" xfId="579"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 6" xfId="580"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 7" xfId="581"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 8" xfId="582"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="583"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 2" xfId="584"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 3" xfId="585"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 4" xfId="586"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 5" xfId="587"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 6" xfId="588"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 7" xfId="589"/>
+    <cellStyle name="差_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 8" xfId="590"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="591"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 2" xfId="592"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 3" xfId="593"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 4" xfId="594"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 5" xfId="595"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 6" xfId="596"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 7" xfId="597"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 8" xfId="598"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="599"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 2" xfId="600"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 3" xfId="601"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 4" xfId="602"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 5" xfId="603"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 6" xfId="604"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 7" xfId="605"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 8" xfId="606"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="607"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 2" xfId="608"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 3" xfId="609"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 4" xfId="610"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 5" xfId="611"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 6" xfId="612"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 7" xfId="613"/>
+    <cellStyle name="差_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 8" xfId="614"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)" xfId="519"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 2" xfId="520"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 3" xfId="521"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 4" xfId="522"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 5" xfId="523"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 6" xfId="524"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 7" xfId="525"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714) 8" xfId="526"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB" xfId="527"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 2" xfId="528"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 3" xfId="529"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 4" xfId="530"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 5" xfId="531"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 6" xfId="532"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 7" xfId="533"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-2-D97-4)-(20110714)_ED_C22_4DB 8" xfId="534"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225)" xfId="535"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 2" xfId="536"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 3" xfId="537"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 4" xfId="538"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 5" xfId="539"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 6" xfId="540"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 7" xfId="541"/>
+    <cellStyle name="好_PCISS-ED(ID)-Chg(STD1-4-C21-59)-(20110225) 8" xfId="542"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)" xfId="543"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 2" xfId="544"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 3" xfId="545"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 4" xfId="546"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 5" xfId="547"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 6" xfId="548"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 7" xfId="549"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820) 8" xfId="550"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win" xfId="551"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 2" xfId="552"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 3" xfId="553"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 4" xfId="554"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 5" xfId="555"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 6" xfId="556"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 7" xfId="557"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win 8" xfId="558"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742" xfId="559"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 2" xfId="560"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 3" xfId="561"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 4" xfId="562"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 5" xfId="563"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 6" xfId="564"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 7" xfId="565"/>
+    <cellStyle name="好_PCISS-ED(lD)-Chg(STD1-5-E04-14)-(20110820)_SOL_ED_A40_1Win_~4583742 8" xfId="566"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_laroux" xfId="692"/>
+    <cellStyle name="桁蟻唇Ｆ_laroux" xfId="693"/>
     <cellStyle name="横倍角(602R)" xfId="773"/>
     <cellStyle name="横倍角(602R) 2" xfId="774"/>
     <cellStyle name="横倍角(602R) 3" xfId="775"/>
@@ -4613,6 +5278,22 @@
     <cellStyle name="横倍角(602R) 6" xfId="778"/>
     <cellStyle name="横倍角(602R) 7" xfId="779"/>
     <cellStyle name="横倍角(602R) 8" xfId="780"/>
+    <cellStyle name="明朝(602R)" xfId="663"/>
+    <cellStyle name="明朝(602R) 2" xfId="664"/>
+    <cellStyle name="明朝(602R) 3" xfId="665"/>
+    <cellStyle name="明朝(602R) 4" xfId="666"/>
+    <cellStyle name="明朝(602R) 5" xfId="667"/>
+    <cellStyle name="明朝(602R) 6" xfId="668"/>
+    <cellStyle name="明朝(602R) 7" xfId="669"/>
+    <cellStyle name="明朝(602R) 8" xfId="670"/>
+    <cellStyle name="明朝強調(602R)" xfId="671"/>
+    <cellStyle name="明朝強調(602R) 2" xfId="672"/>
+    <cellStyle name="明朝強調(602R) 3" xfId="673"/>
+    <cellStyle name="明朝強調(602R) 4" xfId="674"/>
+    <cellStyle name="明朝強調(602R) 5" xfId="675"/>
+    <cellStyle name="明朝強調(602R) 6" xfId="676"/>
+    <cellStyle name="明朝強調(602R) 7" xfId="677"/>
+    <cellStyle name="明朝強調(602R) 8" xfId="678"/>
     <cellStyle name="磨葬e義" xfId="781"/>
     <cellStyle name="磨葬e義 2" xfId="782"/>
     <cellStyle name="磨葬e義 3" xfId="783"/>
@@ -4621,16 +5302,54 @@
     <cellStyle name="磨葬e義 6" xfId="786"/>
     <cellStyle name="磨葬e義 7" xfId="787"/>
     <cellStyle name="磨葬e義 8" xfId="788"/>
-    <cellStyle name="脱浦 [0.00]_??AN運用P1" xfId="789"/>
-    <cellStyle name="脱浦_??AN運用P1" xfId="790"/>
-    <cellStyle name="表旨巧・・ハイパーリンク" xfId="791"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 2" xfId="792"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 3" xfId="793"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 4" xfId="794"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 5" xfId="795"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 6" xfId="796"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 7" xfId="797"/>
-    <cellStyle name="表旨巧・・ハイパーリンク 8" xfId="798"/>
+    <cellStyle name="强调文字颜色 1" xfId="615"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="616"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="617"/>
+    <cellStyle name="强调文字颜色 1 4" xfId="618"/>
+    <cellStyle name="强调文字颜色 1 5" xfId="619"/>
+    <cellStyle name="强调文字颜色 1 6" xfId="620"/>
+    <cellStyle name="强调文字颜色 1 7" xfId="621"/>
+    <cellStyle name="强调文字颜色 1 8" xfId="622"/>
+    <cellStyle name="强调文字颜色 2" xfId="623"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="624"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="625"/>
+    <cellStyle name="强调文字颜色 2 4" xfId="626"/>
+    <cellStyle name="强调文字颜色 2 5" xfId="627"/>
+    <cellStyle name="强调文字颜色 2 6" xfId="628"/>
+    <cellStyle name="强调文字颜色 2 7" xfId="629"/>
+    <cellStyle name="强调文字颜色 2 8" xfId="630"/>
+    <cellStyle name="强调文字颜色 3" xfId="631"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="632"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="633"/>
+    <cellStyle name="强调文字颜色 3 4" xfId="634"/>
+    <cellStyle name="强调文字颜色 3 5" xfId="635"/>
+    <cellStyle name="强调文字颜色 3 6" xfId="636"/>
+    <cellStyle name="强调文字颜色 3 7" xfId="637"/>
+    <cellStyle name="强调文字颜色 3 8" xfId="638"/>
+    <cellStyle name="强调文字颜色 4" xfId="639"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="640"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="641"/>
+    <cellStyle name="强调文字颜色 4 4" xfId="642"/>
+    <cellStyle name="强调文字颜色 4 5" xfId="643"/>
+    <cellStyle name="强调文字颜色 4 6" xfId="644"/>
+    <cellStyle name="强调文字颜色 4 7" xfId="645"/>
+    <cellStyle name="强调文字颜色 4 8" xfId="646"/>
+    <cellStyle name="强调文字颜色 5" xfId="647"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="648"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="649"/>
+    <cellStyle name="强调文字颜色 5 4" xfId="650"/>
+    <cellStyle name="强调文字颜色 5 5" xfId="651"/>
+    <cellStyle name="强调文字颜色 5 6" xfId="652"/>
+    <cellStyle name="强调文字颜色 5 7" xfId="653"/>
+    <cellStyle name="强调文字颜色 5 8" xfId="654"/>
+    <cellStyle name="强调文字颜色 6" xfId="655"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="656"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="657"/>
+    <cellStyle name="强调文字颜色 6 4" xfId="658"/>
+    <cellStyle name="强调文字颜色 6 5" xfId="659"/>
+    <cellStyle name="强调文字颜色 6 6" xfId="660"/>
+    <cellStyle name="强调文字颜色 6 7" xfId="661"/>
+    <cellStyle name="强调文字颜色 6 8" xfId="662"/>
     <cellStyle name="通貨 2" xfId="799"/>
     <cellStyle name="通貨 2 2" xfId="800"/>
     <cellStyle name="通貨 2 3" xfId="801"/>
@@ -4639,14 +5358,32 @@
     <cellStyle name="通貨 2 6" xfId="804"/>
     <cellStyle name="通貨 2 7" xfId="805"/>
     <cellStyle name="通貨 2 8" xfId="806"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="807"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 2" xfId="808"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 3" xfId="809"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 4" xfId="810"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 5" xfId="811"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 6" xfId="812"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 7" xfId="813"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_ 8" xfId="814"/>
+    <cellStyle name="脱浦 [0.00]_??AN運用P1" xfId="789"/>
+    <cellStyle name="脱浦_??AN運用P1" xfId="790"/>
+    <cellStyle name="未定義" xfId="679"/>
+    <cellStyle name="未定義 2" xfId="680"/>
+    <cellStyle name="未定義 3" xfId="681"/>
+    <cellStyle name="未定義 4" xfId="682"/>
+    <cellStyle name="未定義 5" xfId="683"/>
+    <cellStyle name="未定義 6" xfId="684"/>
+    <cellStyle name="未定義 7" xfId="685"/>
+    <cellStyle name="未定義 8" xfId="686"/>
+    <cellStyle name="下点線" xfId="503"/>
+    <cellStyle name="下点線 2" xfId="504"/>
+    <cellStyle name="下点線 3" xfId="505"/>
+    <cellStyle name="下点線 4" xfId="506"/>
+    <cellStyle name="下点線 5" xfId="507"/>
+    <cellStyle name="下点線 6" xfId="508"/>
+    <cellStyle name="下点線 7" xfId="509"/>
+    <cellStyle name="下点線 8" xfId="510"/>
+    <cellStyle name="型番" xfId="511"/>
+    <cellStyle name="型番 2" xfId="512"/>
+    <cellStyle name="型番 3" xfId="513"/>
+    <cellStyle name="型番 4" xfId="514"/>
+    <cellStyle name="型番 5" xfId="515"/>
+    <cellStyle name="型番 6" xfId="516"/>
+    <cellStyle name="型番 7" xfId="517"/>
+    <cellStyle name="型番 8" xfId="518"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5047,782 +5784,782 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="3.3984375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42" t="s">
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42" t="s">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42" t="s">
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42" t="s">
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42" t="s">
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="101"/>
+    </row>
+    <row r="2" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="46" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45" t="s">
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-    </row>
-    <row r="3" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-    </row>
-    <row r="4" spans="1:53" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+    </row>
+    <row r="3" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="104"/>
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+    </row>
+    <row r="4" spans="1:53" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="C4" s="39"/>
     </row>
-    <row r="5" spans="1:53" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:53" s="34" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43" t="s">
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43" t="s">
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="102"/>
+      <c r="AW5" s="102"/>
       <c r="AX5" s="32"/>
       <c r="AY5" s="32"/>
       <c r="AZ5" s="32"/>
       <c r="BA5" s="33"/>
     </row>
-    <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44">
+    <row r="6" spans="1:53" ht="18" customHeight="1">
+      <c r="A6" s="103">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="47" t="s">
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48" t="s">
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="106"/>
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
     </row>
-    <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
+    <row r="7" spans="1:53" ht="18" customHeight="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="35"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="36"/>
     </row>
-    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-      <c r="AV8" s="47"/>
-      <c r="AW8" s="47"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
       <c r="AX8" s="35"/>
       <c r="AY8" s="35"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="36"/>
     </row>
-    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
+    <row r="9" spans="1:53" ht="18" customHeight="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="35"/>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="36"/>
     </row>
-    <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="47"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
+    <row r="10" spans="1:53" ht="18" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
       <c r="AX10" s="35"/>
       <c r="AY10" s="35"/>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="36"/>
     </row>
-    <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
+    <row r="11" spans="1:53" ht="18" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
       <c r="AZ11" s="35"/>
       <c r="BA11" s="36"/>
     </row>
-    <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
+    <row r="12" spans="1:53" ht="18" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="106"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
       <c r="AX12" s="35"/>
       <c r="AY12" s="35"/>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="36"/>
     </row>
-    <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
+    <row r="13" spans="1:53" ht="18" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="35"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="36"/>
     </row>
-    <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
+    <row r="14" spans="1:53" ht="18" customHeight="1">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="106"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="106"/>
+      <c r="AN14" s="106"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
       <c r="AX14" s="35"/>
       <c r="AY14" s="35"/>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="36"/>
     </row>
-    <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:53" ht="18" customHeight="1">
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:53" ht="18" customHeight="1">
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4" ht="18" customHeight="1">
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4" ht="18" customHeight="1">
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
     </row>
@@ -5912,19 +6649,1464 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13">
+      <c r="A1" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13">
+      <c r="A3" s="78">
+        <v>2</v>
+      </c>
+      <c r="B3" s="78">
+        <v>1</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="A4" s="78">
+        <v>3</v>
+      </c>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13">
+      <c r="A5" s="78">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78">
+        <v>1</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13">
+      <c r="A6" s="78">
+        <v>5</v>
+      </c>
+      <c r="B6" s="78">
+        <v>1</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13">
+      <c r="A7" s="78">
+        <v>6</v>
+      </c>
+      <c r="B7" s="78">
+        <v>1</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13">
+      <c r="A8" s="78">
+        <v>7</v>
+      </c>
+      <c r="B8" s="78">
+        <v>1</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13">
+      <c r="A9" s="78">
+        <v>8</v>
+      </c>
+      <c r="B9" s="78">
+        <v>2</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13">
+      <c r="A10" s="78">
+        <v>9</v>
+      </c>
+      <c r="B10" s="78">
+        <v>2</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13">
+      <c r="A11" s="78">
+        <v>10</v>
+      </c>
+      <c r="B11" s="78">
+        <v>2</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13">
+      <c r="A12" s="78">
+        <v>11</v>
+      </c>
+      <c r="B12" s="78">
+        <v>2</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13">
+      <c r="A13" s="78">
+        <v>12</v>
+      </c>
+      <c r="B13" s="78">
+        <v>2</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13">
+      <c r="A14" s="78">
+        <v>13</v>
+      </c>
+      <c r="B14" s="78">
+        <v>2</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13">
+      <c r="A15" s="78">
+        <v>14</v>
+      </c>
+      <c r="B15" s="78">
+        <v>3</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13">
+      <c r="A16" s="78">
+        <v>15</v>
+      </c>
+      <c r="B16" s="78">
+        <v>3</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13">
+      <c r="A17" s="78">
+        <v>16</v>
+      </c>
+      <c r="B17" s="78">
+        <v>3</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13">
+      <c r="A18" s="78">
+        <v>17</v>
+      </c>
+      <c r="B18" s="78">
+        <v>3</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13">
+      <c r="A19" s="78">
+        <v>18</v>
+      </c>
+      <c r="B19" s="78">
+        <v>3</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13">
+      <c r="A20" s="78">
+        <v>19</v>
+      </c>
+      <c r="B20" s="78">
+        <v>3</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13">
+      <c r="A21" s="78">
+        <v>20</v>
+      </c>
+      <c r="B21" s="78">
+        <v>3</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13">
+      <c r="A22" s="78">
+        <v>21</v>
+      </c>
+      <c r="B22" s="78">
+        <v>3</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13">
+      <c r="A23" s="78">
+        <v>22</v>
+      </c>
+      <c r="B23" s="78">
+        <v>4</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13">
+      <c r="A24" s="78">
+        <v>23</v>
+      </c>
+      <c r="B24" s="78">
+        <v>4</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13">
+      <c r="A25" s="78">
+        <v>24</v>
+      </c>
+      <c r="B25" s="78">
+        <v>4</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13">
+      <c r="A26" s="78">
+        <v>25</v>
+      </c>
+      <c r="B26" s="78">
+        <v>4</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13">
+      <c r="A27" s="78">
+        <v>26</v>
+      </c>
+      <c r="B27" s="78">
+        <v>4</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13">
+      <c r="A28" s="78">
+        <v>27</v>
+      </c>
+      <c r="B28" s="78">
+        <v>4</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13">
+      <c r="A29" s="78">
+        <v>28</v>
+      </c>
+      <c r="B29" s="78">
+        <v>4</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13">
+      <c r="A30" s="78">
+        <v>29</v>
+      </c>
+      <c r="B30" s="78">
+        <v>4</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13">
+      <c r="A31" s="78">
+        <v>30</v>
+      </c>
+      <c r="B31" s="78">
+        <v>5</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13">
+      <c r="A32" s="78">
+        <v>31</v>
+      </c>
+      <c r="B32" s="78">
+        <v>5</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13">
+      <c r="A33" s="78">
+        <v>32</v>
+      </c>
+      <c r="B33" s="78">
+        <v>5</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13">
+      <c r="A34" s="78">
+        <v>33</v>
+      </c>
+      <c r="B34" s="78">
+        <v>5</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13">
+      <c r="A35" s="78">
+        <v>34</v>
+      </c>
+      <c r="B35" s="78">
+        <v>6</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13">
+      <c r="A36" s="78">
+        <v>35</v>
+      </c>
+      <c r="B36" s="78">
+        <v>6</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13">
+      <c r="A37" s="78">
+        <v>36</v>
+      </c>
+      <c r="B37" s="78">
+        <v>6</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13">
+      <c r="A38" s="78">
+        <v>37</v>
+      </c>
+      <c r="B38" s="78">
+        <v>6</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13">
+      <c r="A39" s="78">
+        <v>38</v>
+      </c>
+      <c r="B39" s="78">
+        <v>6</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13">
+      <c r="A40" s="78">
+        <v>39</v>
+      </c>
+      <c r="B40" s="78">
+        <v>6</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13">
+      <c r="A41" s="78">
+        <v>40</v>
+      </c>
+      <c r="B41" s="78">
+        <v>6</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13">
+      <c r="A42" s="78">
+        <v>41</v>
+      </c>
+      <c r="B42" s="78">
+        <v>6</v>
+      </c>
+      <c r="C42" s="93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13">
+      <c r="A43" s="78">
+        <v>42</v>
+      </c>
+      <c r="B43" s="78">
+        <v>7</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13">
+      <c r="A44" s="78">
+        <v>43</v>
+      </c>
+      <c r="B44" s="78">
+        <v>7</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13">
+      <c r="A45" s="78">
+        <v>44</v>
+      </c>
+      <c r="B45" s="78">
+        <v>7</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13">
+      <c r="A46" s="78">
+        <v>45</v>
+      </c>
+      <c r="B46" s="78">
+        <v>7</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13">
+      <c r="A47" s="78">
+        <v>46</v>
+      </c>
+      <c r="B47" s="78">
+        <v>7</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13">
+      <c r="A48" s="78">
+        <v>47</v>
+      </c>
+      <c r="B48" s="78">
+        <v>7</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13">
+      <c r="A49" s="78">
+        <v>48</v>
+      </c>
+      <c r="B49" s="78">
+        <v>7</v>
+      </c>
+      <c r="C49" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13">
+      <c r="A50" s="78">
+        <v>49</v>
+      </c>
+      <c r="B50" s="78">
+        <v>7</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13">
+      <c r="A51" s="78">
+        <v>50</v>
+      </c>
+      <c r="B51" s="78">
+        <v>7</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13">
+      <c r="A52" s="78">
+        <v>51</v>
+      </c>
+      <c r="B52" s="78">
+        <v>7</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13">
+      <c r="A53" s="78">
+        <v>52</v>
+      </c>
+      <c r="B53" s="78">
+        <v>7</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13">
+      <c r="A54" s="78">
+        <v>53</v>
+      </c>
+      <c r="B54" s="78">
+        <v>7</v>
+      </c>
+      <c r="C54" s="93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.5">
+      <c r="A55" s="78">
+        <v>54</v>
+      </c>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+    </row>
+    <row r="56" spans="1:3" ht="12.5">
+      <c r="A56" s="78">
+        <v>55</v>
+      </c>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+    </row>
+    <row r="57" spans="1:3" ht="12.5">
+      <c r="A57" s="78">
+        <v>56</v>
+      </c>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+    </row>
+    <row r="58" spans="1:3" ht="12.5">
+      <c r="A58" s="78">
+        <v>57</v>
+      </c>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+    </row>
+    <row r="59" spans="1:3" ht="12.5">
+      <c r="A59" s="78">
+        <v>58</v>
+      </c>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+    </row>
+    <row r="60" spans="1:3" ht="12.5">
+      <c r="A60" s="78">
+        <v>59</v>
+      </c>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+    </row>
+    <row r="61" spans="1:3" ht="12.5">
+      <c r="A61" s="78">
+        <v>60</v>
+      </c>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+    </row>
+    <row r="62" spans="1:3" ht="12.5">
+      <c r="A62" s="78">
+        <v>61</v>
+      </c>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+    </row>
+    <row r="63" spans="1:3" ht="12.5">
+      <c r="A63" s="78">
+        <v>62</v>
+      </c>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+    </row>
+    <row r="64" spans="1:3" ht="12.5">
+      <c r="A64" s="78">
+        <v>63</v>
+      </c>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+    </row>
+    <row r="65" spans="1:3" ht="12.5">
+      <c r="A65" s="78">
+        <v>64</v>
+      </c>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+    </row>
+    <row r="66" spans="1:3" ht="12.5">
+      <c r="A66" s="78">
+        <v>65</v>
+      </c>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+    </row>
+    <row r="67" spans="1:3" ht="12.5">
+      <c r="A67" s="78">
+        <v>66</v>
+      </c>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+    </row>
+    <row r="68" spans="1:3" ht="12.5">
+      <c r="A68" s="78">
+        <v>67</v>
+      </c>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+    </row>
+    <row r="69" spans="1:3" ht="12.5">
+      <c r="A69" s="78">
+        <v>68</v>
+      </c>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+    </row>
+    <row r="70" spans="1:3" ht="12.5">
+      <c r="A70" s="78">
+        <v>69</v>
+      </c>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+    </row>
+    <row r="71" spans="1:3" ht="12.5">
+      <c r="A71" s="78">
+        <v>70</v>
+      </c>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+    </row>
+    <row r="72" spans="1:3" ht="12.5">
+      <c r="A72" s="78">
+        <v>71</v>
+      </c>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+    </row>
+    <row r="73" spans="1:3" ht="12.5">
+      <c r="A73" s="78">
+        <v>72</v>
+      </c>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+    </row>
+    <row r="74" spans="1:3" ht="12.5">
+      <c r="A74" s="78">
+        <v>73</v>
+      </c>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+    </row>
+    <row r="75" spans="1:3" ht="12.5">
+      <c r="A75" s="78">
+        <v>74</v>
+      </c>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+    </row>
+    <row r="76" spans="1:3" ht="12.5">
+      <c r="A76" s="78">
+        <v>75</v>
+      </c>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+    </row>
+    <row r="77" spans="1:3" ht="12.5">
+      <c r="A77" s="78">
+        <v>76</v>
+      </c>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+    </row>
+    <row r="78" spans="1:3" ht="12.5">
+      <c r="A78" s="78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+    </row>
+    <row r="79" spans="1:3" ht="12.5">
+      <c r="A79" s="78">
+        <v>78</v>
+      </c>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+    </row>
+    <row r="80" spans="1:3" ht="12.5">
+      <c r="A80" s="78">
+        <v>79</v>
+      </c>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+    </row>
+    <row r="81" spans="1:3" ht="12.5">
+      <c r="A81" s="78">
+        <v>80</v>
+      </c>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+    </row>
+    <row r="82" spans="1:3" ht="12.5">
+      <c r="A82" s="78">
+        <v>81</v>
+      </c>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+    </row>
+    <row r="83" spans="1:3" ht="12.5">
+      <c r="A83" s="78">
+        <v>82</v>
+      </c>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+    </row>
+    <row r="84" spans="1:3" ht="12.5">
+      <c r="A84" s="78">
+        <v>83</v>
+      </c>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+    </row>
+    <row r="85" spans="1:3" ht="12.5">
+      <c r="A85" s="78">
+        <v>84</v>
+      </c>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+    </row>
+    <row r="86" spans="1:3" ht="12.5">
+      <c r="A86" s="78">
+        <v>85</v>
+      </c>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+    </row>
+    <row r="87" spans="1:3" ht="12.5">
+      <c r="A87" s="78">
+        <v>86</v>
+      </c>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+    </row>
+    <row r="88" spans="1:3" ht="12.5">
+      <c r="A88" s="78">
+        <v>87</v>
+      </c>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+    </row>
+    <row r="89" spans="1:3" ht="12.5">
+      <c r="A89" s="78">
+        <v>88</v>
+      </c>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+    </row>
+    <row r="90" spans="1:3" ht="12.5">
+      <c r="A90" s="78">
+        <v>89</v>
+      </c>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+    </row>
+    <row r="91" spans="1:3" ht="12.5">
+      <c r="A91" s="78">
+        <v>90</v>
+      </c>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+    </row>
+    <row r="92" spans="1:3" ht="12.5">
+      <c r="A92" s="78">
+        <v>91</v>
+      </c>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+    </row>
+    <row r="93" spans="1:3" ht="12.5">
+      <c r="A93" s="78">
+        <v>92</v>
+      </c>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+    </row>
+    <row r="94" spans="1:3" ht="12.5">
+      <c r="A94" s="78">
+        <v>93</v>
+      </c>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+    </row>
+    <row r="95" spans="1:3" ht="12.5">
+      <c r="A95" s="78">
+        <v>94</v>
+      </c>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+    </row>
+    <row r="96" spans="1:3" ht="12.5">
+      <c r="A96" s="78">
+        <v>95</v>
+      </c>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+    </row>
+    <row r="97" spans="1:3" ht="12.5">
+      <c r="A97" s="78">
+        <v>96</v>
+      </c>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+    </row>
+    <row r="98" spans="1:3" ht="12.5">
+      <c r="A98" s="78">
+        <v>97</v>
+      </c>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+    </row>
+    <row r="99" spans="1:3" ht="12.5">
+      <c r="A99" s="78">
+        <v>98</v>
+      </c>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+    </row>
+    <row r="100" spans="1:3" ht="12.5">
+      <c r="A100" s="78">
+        <v>99</v>
+      </c>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="112" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:R29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="97" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="B3" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="F3" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q5" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="R5" s="98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="93">
+        <v>9</v>
+      </c>
+      <c r="C6" s="93">
+        <v>2</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="93">
+        <v>1</v>
+      </c>
+      <c r="G6" s="93">
+        <v>9</v>
+      </c>
+      <c r="H6" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="93">
+        <v>0</v>
+      </c>
+      <c r="K6" s="93">
+        <v>3</v>
+      </c>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="93">
+        <v>1</v>
+      </c>
+      <c r="O6" s="93">
+        <v>1</v>
+      </c>
+      <c r="P6" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q6" s="93">
+        <v>0</v>
+      </c>
+      <c r="R6" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="97" customFormat="1">
+      <c r="F7" s="93">
+        <v>2</v>
+      </c>
+      <c r="G7" s="93">
+        <v>9</v>
+      </c>
+      <c r="H7" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="93">
+        <v>0</v>
+      </c>
+      <c r="K7" s="93">
+        <v>3</v>
+      </c>
+      <c r="N7" s="93">
+        <v>2</v>
+      </c>
+      <c r="O7" s="93">
+        <v>1</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="93">
+        <v>0</v>
+      </c>
+      <c r="R7" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="97" customFormat="1">
+      <c r="F8" s="93">
+        <v>3</v>
+      </c>
+      <c r="G8" s="93">
+        <v>9</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="93">
+        <v>3</v>
+      </c>
+      <c r="K8" s="93">
+        <v>2</v>
+      </c>
+      <c r="N8" s="93">
+        <v>3</v>
+      </c>
+      <c r="O8" s="93">
+        <v>1</v>
+      </c>
+      <c r="P8" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q8" s="93">
+        <v>1</v>
+      </c>
+      <c r="R8" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="97" customFormat="1">
+      <c r="F9" s="93">
+        <v>4</v>
+      </c>
+      <c r="G9" s="93">
+        <v>9</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="93">
+        <v>2</v>
+      </c>
+      <c r="K9" s="93">
+        <v>4</v>
+      </c>
+      <c r="N9" s="93">
+        <v>4</v>
+      </c>
+      <c r="O9" s="93">
+        <v>2</v>
+      </c>
+      <c r="P9" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q9" s="93">
+        <v>0</v>
+      </c>
+      <c r="R9" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="97" customFormat="1">
+      <c r="F10" s="93">
+        <v>5</v>
+      </c>
+      <c r="G10" s="93">
+        <v>9</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="93">
+        <v>1</v>
+      </c>
+      <c r="K10" s="93">
+        <v>5</v>
+      </c>
+      <c r="N10" s="93">
+        <v>5</v>
+      </c>
+      <c r="O10" s="93">
+        <v>2</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="93">
+        <v>0</v>
+      </c>
+      <c r="R10" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="97" customFormat="1">
+      <c r="N11" s="93">
+        <v>6</v>
+      </c>
+      <c r="O11" s="93">
+        <v>2</v>
+      </c>
+      <c r="P11" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q11" s="93">
+        <v>0</v>
+      </c>
+      <c r="R11" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="97" customFormat="1">
+      <c r="N12" s="93">
+        <v>7</v>
+      </c>
+      <c r="O12" s="93">
+        <v>3</v>
+      </c>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93">
+        <v>0</v>
+      </c>
+      <c r="R12" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="97" customFormat="1">
+      <c r="N13" s="93">
+        <v>8</v>
+      </c>
+      <c r="O13" s="93">
+        <v>3</v>
+      </c>
+      <c r="P13" s="93">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="93">
+        <v>0</v>
+      </c>
+      <c r="R13" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="97" customFormat="1">
+      <c r="N14" s="93">
+        <v>9</v>
+      </c>
+      <c r="O14" s="93">
+        <v>4</v>
+      </c>
+      <c r="P14" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="93">
+        <v>0</v>
+      </c>
+      <c r="R14" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" s="97" customFormat="1">
+      <c r="N15" s="93">
+        <v>10</v>
+      </c>
+      <c r="O15" s="93">
+        <v>4</v>
+      </c>
+      <c r="P15" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q15" s="93">
+        <v>0</v>
+      </c>
+      <c r="R15" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="97" customFormat="1">
+      <c r="N16" s="93">
+        <v>11</v>
+      </c>
+      <c r="O16" s="93">
+        <v>4</v>
+      </c>
+      <c r="P16" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q16" s="93">
+        <v>0</v>
+      </c>
+      <c r="R16" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" s="97" customFormat="1">
+      <c r="N17" s="93">
+        <v>12</v>
+      </c>
+      <c r="O17" s="93">
+        <v>4</v>
+      </c>
+      <c r="P17" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q17" s="93">
+        <v>0</v>
+      </c>
+      <c r="R17" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" s="97" customFormat="1">
+      <c r="N18" s="93">
+        <v>13</v>
+      </c>
+      <c r="O18" s="93">
+        <v>5</v>
+      </c>
+      <c r="P18" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q18" s="93">
+        <v>0</v>
+      </c>
+      <c r="R18" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" s="97" customFormat="1">
+      <c r="N19" s="93">
+        <v>14</v>
+      </c>
+      <c r="O19" s="93">
+        <v>5</v>
+      </c>
+      <c r="P19" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q19" s="93">
+        <v>0</v>
+      </c>
+      <c r="R19" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="14:18" s="97" customFormat="1">
+      <c r="N20" s="93">
+        <v>15</v>
+      </c>
+      <c r="O20" s="93">
+        <v>5</v>
+      </c>
+      <c r="P20" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q20" s="93">
+        <v>0</v>
+      </c>
+      <c r="R20" s="93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" s="97" customFormat="1">
+      <c r="N21" s="93">
+        <v>16</v>
+      </c>
+      <c r="O21" s="93">
+        <v>5</v>
+      </c>
+      <c r="P21" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="93">
+        <v>0</v>
+      </c>
+      <c r="R21" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" s="97" customFormat="1">
+      <c r="N22" s="93">
+        <v>17</v>
+      </c>
+      <c r="O22" s="93">
+        <v>5</v>
+      </c>
+      <c r="P22" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q22" s="93">
+        <v>0</v>
+      </c>
+      <c r="R22" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" s="97" customFormat="1"/>
+    <row r="24" spans="14:18" s="97" customFormat="1"/>
+    <row r="25" spans="14:18" s="97" customFormat="1"/>
+    <row r="26" spans="14:18" s="97" customFormat="1"/>
+    <row r="27" spans="14:18" s="97" customFormat="1"/>
+    <row r="28" spans="14:18" s="97" customFormat="1"/>
+    <row r="29" spans="14:18" s="97" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="112" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
@@ -5938,70 +8120,70 @@
     <col min="14" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -6016,7 +8198,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
@@ -6057,37 +8239,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68">
+    <row r="6" spans="1:13" s="54" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="48">
         <f t="shared" ref="A6:A20" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="49">
         <v>32</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6113,7 +8295,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6137,7 +8319,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6165,7 +8347,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6191,7 +8373,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6217,7 +8399,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6243,7 +8425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="99">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6271,7 +8453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6295,7 +8477,7 @@
       <c r="L14" s="29"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6319,7 +8501,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6343,7 +8525,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6369,7 +8551,7 @@
       <c r="L17" s="29"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6395,7 +8577,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6419,7 +8601,7 @@
       <c r="L19" s="29"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6445,7 +8627,7 @@
       <c r="L20" s="29"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -6460,7 +8642,7 @@
       <c r="L21" s="29"/>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="24"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -6475,7 +8657,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6528,7 +8710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6539,7 +8721,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
@@ -6553,70 +8735,70 @@
     <col min="14" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -6631,7 +8813,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
@@ -6672,121 +8854,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68">
+    <row r="6" spans="1:13" s="54" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="48">
         <f t="shared" ref="A6:A15" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="49">
         <v>32</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="69"/>
-    </row>
-    <row r="7" spans="1:13" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" s="54" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="49">
         <v>32</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="69"/>
-    </row>
-    <row r="8" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61">
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="1:13" s="47" customFormat="1">
+      <c r="A8" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="42">
         <v>256</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="62" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="88" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82">
+    <row r="9" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="63">
         <v>64</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6810,7 +8992,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6836,7 +9018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6862,7 +9044,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6888,7 +9070,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="22" customFormat="1" ht="66">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6914,7 +9096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6940,7 +9122,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6955,7 +9137,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6985,6 +9167,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F9:G11 I3 F6:G7">
       <formula1>"○"</formula1>
@@ -7007,18 +9190,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
@@ -7032,70 +9215,70 @@
     <col min="14" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7110,7 +9293,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
@@ -7151,68 +9334,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75">
+    <row r="6" spans="1:13" s="61" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="55">
         <f t="shared" ref="A6:A11" si="0">ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="56">
         <v>32</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="76"/>
-    </row>
-    <row r="7" spans="1:13" s="81" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="75">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="56"/>
+    </row>
+    <row r="7" spans="1:13" s="61" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="56">
         <v>32</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="76"/>
-    </row>
-    <row r="8" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75">
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" s="61" customFormat="1">
+      <c r="A8" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7228,20 +9411,20 @@
       <c r="E8" s="17">
         <v>32</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="76"/>
-    </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7267,7 +9450,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7293,7 +9476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7317,7 +9500,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7332,7 +9515,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7347,7 +9530,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7362,7 +9545,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="4"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7377,7 +9560,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="4"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -7392,7 +9575,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7407,7 +9590,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7437,6 +9620,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7 L9:L10 L12">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
@@ -7459,7 +9643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7470,7 +9654,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
@@ -7484,70 +9668,70 @@
     <col min="14" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7562,7 +9746,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
@@ -7603,7 +9787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A12" si="0">ROW()-5</f>
         <v>1</v>
@@ -7633,7 +9817,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7663,7 +9847,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7691,7 +9875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7717,7 +9901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7743,7 +9927,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7769,7 +9953,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7795,7 +9979,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7810,7 +9994,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7825,7 +10009,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="17"/>
@@ -7840,7 +10024,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -7855,7 +10039,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -7870,7 +10054,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -7885,7 +10069,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -7900,7 +10084,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -7915,7 +10099,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7945,6 +10129,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
       <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
@@ -7967,7 +10152,1477 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A6" s="84">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="79">
+        <v>32</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A7" s="84">
+        <f>ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="79">
+        <v>32</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A8" s="84">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="79">
+        <v>256</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A9" s="84"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="91"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A10" s="84"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="84"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="84"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="84"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="84"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="79"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1">
+      <c r="A15" s="84"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1">
+      <c r="A17" s="90"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="85"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1">
+      <c r="A20" s="90"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="84"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 G12 F6:G11">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A6" s="84">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="79">
+        <v>32</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A7" s="84">
+        <f>ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="79">
+        <v>32</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A8" s="84">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="79">
+        <v>256</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="79">
+        <v>256</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="99">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="79">
+        <v>2</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="84">
+        <v>6</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="79">
+        <v>3</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="92"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="84"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="84"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="84"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="79"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1">
+      <c r="A15" s="84"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1">
+      <c r="A16" s="90"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1">
+      <c r="A17" s="90"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="85"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1">
+      <c r="A20" s="90"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="84"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G11 I3">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="12" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.19921875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="119"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="119"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A6" s="84">
+        <f>ROW()-5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="79">
+        <v>32</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A7" s="84">
+        <f>ROW()-5</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="79">
+        <v>32</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A8" s="84">
+        <f>ROW()-5</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="79">
+        <v>32</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="33">
+      <c r="A9" s="84">
+        <v>4</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="79">
+        <v>1</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A10" s="84">
+        <v>5</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="79">
+        <v>3</v>
+      </c>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A11" s="84"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="84"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="84"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="84"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="79"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="84"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="79"/>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1">
+      <c r="A16" s="84"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1">
+      <c r="A17" s="90"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1">
+      <c r="A18" s="90"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="85"/>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1">
+      <c r="A19" s="90"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1">
+      <c r="A20" s="90"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1">
+      <c r="A21" s="90"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="85"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="84"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="112" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
+      <formula1>"日时,日期,时间,英字,数字,英数,货币,电话,手机,邮编,EMAIL,ASCII,ASCII-NS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 I3 G13 F6:G12">
+      <formula1>"○"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D22">
+      <formula1>"文本,整数,日期,时间,时间戳,大整数,数值,定长文本,长文本,二进制对象,字符大对象,自增序列"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="0.78740157480314954" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Meiryo UI,標準"&amp;10&amp;P/&amp;N&amp;R&amp;"Meiryo UI,標準"&amp;10©Copyright IBM Japan, Ltd. 2013</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
@@ -7977,365 +11632,367 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="89" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11" style="89"/>
-    <col min="7" max="7" width="8.19921875" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.59765625" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="89"/>
-    <col min="11" max="11" width="16.19921875" style="89" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" style="89" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.796875" style="89" customWidth="1"/>
-    <col min="14" max="14" width="7.19921875" style="89" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="89" customWidth="1"/>
-    <col min="16" max="16" width="23.19921875" style="89" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="89"/>
+    <col min="1" max="1" width="4.796875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11" style="69"/>
+    <col min="7" max="7" width="8.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.59765625" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="69"/>
+    <col min="11" max="11" width="16.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="69" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="69" customWidth="1"/>
+    <col min="16" max="16" width="23.19921875" style="69" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="95" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="90" t="s">
+    <row r="2" spans="2:16" s="75" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="F2" s="91" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="2:16">
+      <c r="B3" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="F3" s="93" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="K3" s="98" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="K3" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="78">
         <v>1</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="O3" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="98"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="F4" s="93" t="s">
+      <c r="P3" s="78"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="F4" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="K4" s="98" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="K4" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="M4" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="78">
         <v>2</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="P4" s="98"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="K5" s="98" t="s">
+      <c r="P4" s="78"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="K5" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="78">
         <v>1</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="98"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="K6" s="98" t="s">
+      <c r="P5" s="78"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="K6" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="98" t="s">
+      <c r="M6" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="98">
+      <c r="N6" s="78">
         <v>2</v>
       </c>
-      <c r="O6" s="98" t="s">
+      <c r="O6" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="98"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="K7" s="98" t="s">
+      <c r="P6" s="78"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="K7" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="98" t="s">
+      <c r="L7" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="78">
         <v>3</v>
       </c>
-      <c r="O7" s="98" t="s">
+      <c r="O7" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="98"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K8" s="93" t="s">
+      <c r="P7" s="78"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="K8" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="73">
         <v>1</v>
       </c>
-      <c r="O8" s="93" t="s">
+      <c r="O8" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="93"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K9" s="93" t="s">
+      <c r="P8" s="73"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="K9" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="73">
         <v>1</v>
       </c>
-      <c r="O9" s="93">
+      <c r="O9" s="73">
         <v>100</v>
       </c>
-      <c r="P9" s="93"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K10" s="93" t="s">
+      <c r="P9" s="73"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="K10" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="73">
         <v>2</v>
       </c>
-      <c r="O10" s="93">
+      <c r="O10" s="73">
         <v>150</v>
       </c>
-      <c r="P10" s="93"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K11" s="93" t="s">
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="K11" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="93" t="s">
+      <c r="L11" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93" t="s">
+      <c r="N11" s="73"/>
+      <c r="O11" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="93"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-    </row>
-    <row r="17" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-    </row>
-    <row r="18" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-    </row>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-    </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.15">
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
+      <c r="P11" s="73"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+    </row>
+    <row r="17" spans="11:16">
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="11:16">
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+    </row>
+    <row r="19" spans="11:16">
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="11:16">
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+    </row>
+    <row r="21" spans="11:16">
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+    </row>
+    <row r="22" spans="11:16">
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="112" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
+++ b/input/design-table/cn.com.gxt.entity/DB设计-供销通-业务表v0.1.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="259">
   <si>
     <t>○</t>
   </si>
@@ -521,9 +521,6 @@
     <t>ORDER_ITEM_PROP</t>
   </si>
   <si>
-    <t>ORDER_ITEM_PROP_KEY</t>
-  </si>
-  <si>
     <t>ORDER_ITEM_PROP_VALUE</t>
   </si>
   <si>
@@ -647,23 +644,11 @@
     <t>氙气大灯</t>
   </si>
   <si>
-    <t>CATEGORY_NAME</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>品类名称</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
-    <t>PARENT_CATEGORY_CODE</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>父品类编号</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY_CODE</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
@@ -716,15 +701,7 @@
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
-    <t>ATTRIBUTE_NAME</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>属性名称</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIBUTE_CODE</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
@@ -757,31 +734,15 @@
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
-    <t>ATTRIBUTE_VALUE_STATUS</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>属性值状态</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
-    <t>ATTRIBUTE_VALUE_NAME</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>属性值名称</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
-    <t>ATTRIBUTE_CODE</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
     <t>属性编号</t>
-    <phoneticPr fontId="112" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIBUTE_VALUE_CODE</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
   <si>
@@ -1195,6 +1156,42 @@
   </si>
   <si>
     <t>品类属性值表</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ITEM_PROP_KEY</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_ITEM_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_VALUE_CODE</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_VALUE_NAME</t>
+    <phoneticPr fontId="112" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROP_VALUE_STATUS</t>
     <phoneticPr fontId="112" type="noConversion"/>
   </si>
 </sst>
@@ -4503,32 +4500,32 @@
     <xf numFmtId="0" fontId="113" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="100" fillId="0" borderId="3" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="27" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="100" fillId="0" borderId="3" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="3" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5802,746 +5799,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101" t="s">
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101" t="s">
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101" t="s">
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101" t="s">
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="101"/>
-      <c r="AW1" s="101"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
     </row>
     <row r="2" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="105" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104" t="s">
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
     </row>
     <row r="3" spans="1:53" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="104"/>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="104"/>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
-      <c r="AW3" s="104"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
     </row>
     <row r="4" spans="1:53" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:53" s="34" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102" t="s">
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102" t="s">
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
       <c r="AX5" s="32"/>
       <c r="AY5" s="32"/>
       <c r="AZ5" s="32"/>
       <c r="BA5" s="33"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1">
-      <c r="A6" s="103">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="106" t="s">
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="107" t="s">
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="102"/>
+      <c r="AV6" s="102"/>
+      <c r="AW6" s="102"/>
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="35"/>
       <c r="BA6" s="36"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="106"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
+      <c r="AR7" s="102"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="102"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="35"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="36"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="102"/>
+      <c r="AS8" s="102"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="102"/>
+      <c r="AV8" s="102"/>
+      <c r="AW8" s="102"/>
       <c r="AX8" s="35"/>
       <c r="AY8" s="35"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="36"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="35"/>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="36"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
       <c r="AX10" s="35"/>
       <c r="AY10" s="35"/>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="36"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
       <c r="AZ11" s="35"/>
       <c r="BA11" s="36"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="102"/>
+      <c r="AO12" s="102"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="102"/>
+      <c r="AR12" s="102"/>
+      <c r="AS12" s="102"/>
+      <c r="AT12" s="102"/>
+      <c r="AU12" s="102"/>
+      <c r="AV12" s="102"/>
+      <c r="AW12" s="102"/>
       <c r="AX12" s="35"/>
       <c r="AY12" s="35"/>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="36"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="35"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="36"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="106"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="102"/>
+      <c r="AO14" s="102"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="102"/>
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
       <c r="AX14" s="35"/>
       <c r="AY14" s="35"/>
       <c r="AZ14" s="35"/>
@@ -6565,39 +6562,21 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -6614,21 +6593,39 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="43"/>
   <dataValidations count="3">
@@ -6664,13 +6661,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13">
       <c r="A1" s="95" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13">
@@ -6681,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13">
@@ -6692,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13">
@@ -6703,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13">
@@ -6714,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13">
@@ -6725,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13">
@@ -6736,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13">
@@ -6747,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13">
@@ -6758,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13">
@@ -6769,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13">
@@ -6780,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13">
@@ -6791,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13">
@@ -6802,7 +6799,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13">
@@ -6813,7 +6810,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13">
@@ -6824,7 +6821,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13">
@@ -6835,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13">
@@ -6846,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13">
@@ -6857,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13">
@@ -6868,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13">
@@ -6879,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13">
@@ -6890,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13">
@@ -6901,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13">
@@ -6912,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13">
@@ -6923,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13">
@@ -6934,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13">
@@ -6945,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13">
@@ -6956,7 +6953,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13">
@@ -6967,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13">
@@ -6978,7 +6975,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13">
@@ -6989,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13">
@@ -7000,7 +6997,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13">
@@ -7011,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13">
@@ -7022,7 +7019,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="94" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13">
@@ -7033,7 +7030,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13">
@@ -7044,7 +7041,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13">
@@ -7055,7 +7052,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13">
@@ -7066,7 +7063,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13">
@@ -7077,7 +7074,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13">
@@ -7088,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13">
@@ -7099,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13">
@@ -7110,7 +7107,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13">
@@ -7121,7 +7118,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13">
@@ -7132,7 +7129,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13">
@@ -7143,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13">
@@ -7154,7 +7151,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13">
@@ -7165,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13">
@@ -7176,7 +7173,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13">
@@ -7187,7 +7184,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13">
@@ -7198,7 +7195,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13">
@@ -7209,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13">
@@ -7220,7 +7217,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13">
@@ -7231,7 +7228,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13">
@@ -7242,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13">
@@ -7253,7 +7250,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.5">
@@ -7608,11 +7605,11 @@
   <sheetData>
     <row r="3" spans="2:18">
       <c r="B3" s="97" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C3" s="97"/>
       <c r="F3" s="97" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
@@ -7622,7 +7619,7 @@
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="97" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
@@ -7648,48 +7645,48 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="98" t="s">
         <v>143</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="98" t="s">
-        <v>147</v>
       </c>
       <c r="L5" s="97"/>
       <c r="M5" s="97"/>
       <c r="N5" s="98" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P5" s="98" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="98" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="R5" s="98" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -7700,7 +7697,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F6" s="93">
         <v>1</v>
@@ -7709,10 +7706,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I6" s="93" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="J6" s="93">
         <v>0</v>
@@ -7729,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="93" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="93">
         <v>0</v>
@@ -7746,10 +7743,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="93" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I7" s="93" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J7" s="93">
         <v>0</v>
@@ -7764,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="93" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="93">
         <v>0</v>
@@ -7781,10 +7778,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I8" s="93" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J8" s="93">
         <v>3</v>
@@ -7799,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="93" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="93">
         <v>1</v>
@@ -7816,10 +7813,10 @@
         <v>9</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I9" s="93" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J9" s="93">
         <v>2</v>
@@ -7834,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="93">
         <v>0</v>
@@ -7851,10 +7848,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I10" s="93" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J10" s="93">
         <v>1</v>
@@ -7869,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="93">
         <v>0</v>
@@ -7886,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="93" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="93">
         <v>0</v>
@@ -7935,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="93" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="93">
         <v>0</v>
@@ -7952,7 +7949,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="93" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q15" s="93">
         <v>0</v>
@@ -7969,7 +7966,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="93" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="93">
         <v>0</v>
@@ -7986,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="93" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="93">
         <v>0</v>
@@ -8003,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="93" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="93">
         <v>0</v>
@@ -8020,7 +8017,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="93" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="93">
         <v>0</v>
@@ -8037,7 +8034,7 @@
         <v>5</v>
       </c>
       <c r="P20" s="93" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="93">
         <v>0</v>
@@ -8054,7 +8051,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="93" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="Q21" s="93">
         <v>0</v>
@@ -8071,7 +8068,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="93" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="93">
         <v>0</v>
@@ -8126,7 +8123,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -8557,10 +8554,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
@@ -8583,7 +8580,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>75</v>
@@ -8741,7 +8738,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -8890,7 +8887,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>62</v>
@@ -8920,7 +8917,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>63</v>
@@ -8939,7 +8936,7 @@
       <c r="K8" s="45"/>
       <c r="L8" s="46"/>
       <c r="M8" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="68" customFormat="1" ht="14.25" customHeight="1">
@@ -8948,7 +8945,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>64</v>
@@ -8974,7 +8971,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>65</v>
@@ -8998,7 +8995,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>66</v>
@@ -9093,7 +9090,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="21"/>
       <c r="M14" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
@@ -9198,7 +9195,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
@@ -9221,7 +9218,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -9400,10 +9397,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>33</v>
@@ -9430,10 +9427,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>33</v>
@@ -9456,10 +9453,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>34</v>
@@ -9473,7 +9470,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="21"/>
       <c r="M10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1">
@@ -9482,10 +9479,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
@@ -9856,7 +9853,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>33</v>
@@ -9872,7 +9869,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
       <c r="M8" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
@@ -10160,7 +10157,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
@@ -10183,7 +10180,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -10204,7 +10201,7 @@
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="109" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
@@ -10302,10 +10299,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="D6" s="83" t="s">
         <v>33</v>
@@ -10332,10 +10329,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>33</v>
@@ -10360,10 +10357,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>33</v>
@@ -10579,6 +10576,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -10587,10 +10588,6 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
@@ -10623,7 +10620,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
@@ -10646,7 +10643,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -10667,7 +10664,7 @@
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="109" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
@@ -10765,10 +10762,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D6" s="83" t="s">
         <v>33</v>
@@ -10795,10 +10792,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>33</v>
@@ -10823,10 +10820,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>33</v>
@@ -10850,10 +10847,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" s="83" t="s">
         <v>33</v>
@@ -10871,7 +10868,7 @@
       <c r="K9" s="81"/>
       <c r="L9" s="80"/>
       <c r="M9" s="91" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="99">
@@ -10879,10 +10876,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>34</v>
@@ -10900,7 +10897,7 @@
       <c r="K10" s="81"/>
       <c r="L10" s="80"/>
       <c r="M10" s="92" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10908,10 +10905,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>34</v>
@@ -11082,6 +11079,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -11090,10 +11091,6 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
@@ -11126,7 +11123,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5"/>
@@ -11149,7 +11146,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="109" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D1" s="110"/>
       <c r="E1" s="110"/>
@@ -11170,7 +11167,7 @@
       </c>
       <c r="B2" s="115"/>
       <c r="C2" s="109" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
@@ -11268,10 +11265,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="D6" s="83" t="s">
         <v>33</v>
@@ -11298,10 +11295,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>33</v>
@@ -11326,10 +11323,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>33</v>
@@ -11351,10 +11348,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="D9" s="83" t="s">
         <v>34</v>
@@ -11367,14 +11364,14 @@
         <v>0</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I9" s="81"/>
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
       <c r="L9" s="80"/>
       <c r="M9" s="91" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1">
@@ -11382,10 +11379,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>34</v>
@@ -11586,6 +11583,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -11594,10 +11595,6 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
   </mergeCells>
   <phoneticPr fontId="112" type="noConversion"/>
   <dataValidations count="3">
@@ -11673,10 +11670,10 @@
         <v>40</v>
       </c>
       <c r="H2" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>121</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>122</v>
       </c>
       <c r="K2" s="72" t="s">
         <v>36</v>
@@ -11685,46 +11682,46 @@
         <v>40</v>
       </c>
       <c r="M2" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="72" t="s">
+      <c r="P2" s="72" t="s">
         <v>109</v>
-      </c>
-      <c r="P2" s="72" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
       <c r="F3" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
       <c r="K3" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3" s="78">
         <v>1</v>
       </c>
       <c r="O3" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3" s="78"/>
     </row>
@@ -11733,27 +11730,27 @@
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
       <c r="F4" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
       <c r="K4" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N4" s="78">
         <v>2</v>
       </c>
       <c r="O4" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P4" s="78"/>
     </row>
@@ -11766,19 +11763,19 @@
       <c r="H5" s="73"/>
       <c r="I5" s="73"/>
       <c r="K5" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N5" s="78">
         <v>1</v>
       </c>
       <c r="O5" s="78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="78"/>
     </row>
@@ -11791,19 +11788,19 @@
       <c r="H6" s="73"/>
       <c r="I6" s="73"/>
       <c r="K6" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N6" s="78">
         <v>2</v>
       </c>
       <c r="O6" s="78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P6" s="78"/>
     </row>
@@ -11816,49 +11813,49 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="K7" s="78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7" s="78">
         <v>3</v>
       </c>
       <c r="O7" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P7" s="78"/>
     </row>
     <row r="8" spans="2:16">
       <c r="K8" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N8" s="73">
         <v>1</v>
       </c>
       <c r="O8" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P8" s="73"/>
     </row>
     <row r="9" spans="2:16">
       <c r="K9" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" s="73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9" s="73">
         <v>1</v>
@@ -11870,13 +11867,13 @@
     </row>
     <row r="10" spans="2:16">
       <c r="K10" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N10" s="73">
         <v>2</v>
@@ -11888,17 +11885,17 @@
     </row>
     <row r="11" spans="2:16">
       <c r="K11" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N11" s="73"/>
       <c r="O11" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P11" s="73"/>
     </row>
